--- a/Data/2023/Lineup/Results.xlsx
+++ b/Data/2023/Lineup/Results.xlsx
@@ -832,6 +832,12 @@
       <c r="Q2" s="4">
         <v>-17</v>
       </c>
+      <c r="R2" s="4">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3" t="s">
@@ -885,6 +891,12 @@
       <c r="Q3" s="4">
         <v>8</v>
       </c>
+      <c r="R3" s="4">
+        <v>19</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
@@ -938,6 +950,12 @@
       <c r="Q4" s="4">
         <v>2</v>
       </c>
+      <c r="R4" s="4">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
@@ -991,6 +1009,12 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
@@ -1044,6 +1068,12 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
@@ -1097,6 +1127,12 @@
       <c r="Q7" s="4">
         <v>5</v>
       </c>
+      <c r="R7" s="4">
+        <v>-16</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
@@ -1150,6 +1186,12 @@
       <c r="Q8" s="4">
         <v>10</v>
       </c>
+      <c r="R8" s="4">
+        <v>2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
@@ -1203,6 +1245,12 @@
       <c r="Q9" s="4">
         <v>7</v>
       </c>
+      <c r="R9" s="4">
+        <v>11</v>
+      </c>
+      <c r="S9" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
@@ -1256,6 +1304,12 @@
       <c r="Q10" s="4">
         <v>-14</v>
       </c>
+      <c r="R10" s="4">
+        <v>17</v>
+      </c>
+      <c r="S10" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7" t="s">
@@ -1309,6 +1363,12 @@
       <c r="Q11" s="4">
         <v>16</v>
       </c>
+      <c r="R11" s="4">
+        <v>25</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-9</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="8" t="s">
@@ -1362,6 +1422,12 @@
       <c r="Q12" s="4">
         <v>22</v>
       </c>
+      <c r="R12" s="4">
+        <v>22</v>
+      </c>
+      <c r="S12" s="4">
+        <v>-10</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="8" t="s">
@@ -1415,6 +1481,12 @@
       <c r="Q13" s="4">
         <v>18</v>
       </c>
+      <c r="R13" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S13" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
@@ -1468,6 +1540,12 @@
       <c r="Q14" s="4">
         <v>4</v>
       </c>
+      <c r="R14" s="4">
+        <v>23</v>
+      </c>
+      <c r="S14" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
@@ -1521,6 +1599,12 @@
       <c r="Q15" s="4">
         <v>10</v>
       </c>
+      <c r="R15" s="4">
+        <v>-18</v>
+      </c>
+      <c r="S15" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="10" t="s">
@@ -1574,6 +1658,12 @@
       <c r="Q16" s="4">
         <v>31</v>
       </c>
+      <c r="R16" s="4">
+        <v>41</v>
+      </c>
+      <c r="S16" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="10" t="s">
@@ -1627,6 +1717,12 @@
       <c r="Q17" s="4">
         <v>35</v>
       </c>
+      <c r="R17" s="4">
+        <v>56</v>
+      </c>
+      <c r="S17" s="4">
+        <v>-20</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="11" t="s">
@@ -1680,6 +1776,12 @@
       <c r="Q18" s="4">
         <v>20</v>
       </c>
+      <c r="R18" s="4">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4">
+        <v>-4</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="11" t="s">
@@ -1733,6 +1835,12 @@
       <c r="Q19" s="4">
         <v>14</v>
       </c>
+      <c r="R19" s="4">
+        <v>37</v>
+      </c>
+      <c r="S19" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
@@ -1786,6 +1894,12 @@
       <c r="Q20" s="4">
         <v>47</v>
       </c>
+      <c r="R20" s="4">
+        <v>62</v>
+      </c>
+      <c r="S20" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
@@ -1839,6 +1953,12 @@
       <c r="Q21" s="4">
         <v>-11</v>
       </c>
+      <c r="R21" s="4">
+        <v>-3</v>
+      </c>
+      <c r="S21" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="13" t="s">
@@ -1892,6 +2012,12 @@
       <c r="Q22" s="4">
         <v>-15</v>
       </c>
+      <c r="R22" s="4">
+        <v>23</v>
+      </c>
+      <c r="S22" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="13" t="s">
@@ -1945,6 +2071,12 @@
       <c r="Q23" s="4">
         <v>-21</v>
       </c>
+      <c r="R23" s="4">
+        <v>-34</v>
+      </c>
+      <c r="S23" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
@@ -2069,6 +2201,12 @@
       <c r="Q26" s="4">
         <v>8.699999999999999</v>
       </c>
+      <c r="R26" s="4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="S26" s="4">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="3" t="s">
@@ -2122,6 +2260,12 @@
       <c r="Q27" s="4">
         <v>6.7</v>
       </c>
+      <c r="R27" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="S27" s="4">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
@@ -2175,6 +2319,12 @@
       <c r="Q28" s="4">
         <v>5.4</v>
       </c>
+      <c r="R28" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="S28" s="4">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="5" t="s">
@@ -2228,6 +2378,12 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
@@ -2281,6 +2437,12 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
+      <c r="R30" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="S30" s="4">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
@@ -2334,6 +2496,12 @@
       <c r="Q31" s="4">
         <v>6</v>
       </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="6" t="s">
@@ -2387,8 +2555,14 @@
       <c r="Q32" s="4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="S32" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -2440,8 +2614,14 @@
       <c r="Q33" s="4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="4">
+        <v>12</v>
+      </c>
+      <c r="S33" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2493,8 +2673,14 @@
       <c r="Q34" s="4">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="4">
+        <v>11</v>
+      </c>
+      <c r="S34" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2732,14 @@
       <c r="Q35" s="4">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="S35" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -2599,8 +2791,14 @@
       <c r="Q36" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="S36" s="4">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -2652,8 +2850,14 @@
       <c r="Q37" s="4">
         <v>19.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="4">
+        <v>19.4</v>
+      </c>
+      <c r="S37" s="4">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="9" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2909,14 @@
       <c r="Q38" s="4">
         <v>8.300000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="4">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S38" s="4">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
@@ -2758,8 +2968,14 @@
       <c r="Q39" s="4">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="S39" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
@@ -2811,8 +3027,14 @@
       <c r="Q40" s="4">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="4">
+        <v>17</v>
+      </c>
+      <c r="S40" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="10" t="s">
         <v>38</v>
       </c>
@@ -2864,8 +3086,14 @@
       <c r="Q41" s="4">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="4">
+        <v>14</v>
+      </c>
+      <c r="S41" s="4">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
@@ -2917,8 +3145,14 @@
       <c r="Q42" s="4">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="S42" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
@@ -2970,8 +3204,14 @@
       <c r="Q43" s="4">
         <v>19.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="S43" s="4">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="12" t="s">
         <v>41</v>
       </c>
@@ -3023,8 +3263,14 @@
       <c r="Q44" s="4">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="S44" s="4">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="12" t="s">
         <v>42</v>
       </c>
@@ -3076,8 +3322,14 @@
       <c r="Q45" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="4">
+        <v>20.1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="13" t="s">
         <v>43</v>
       </c>
@@ -3129,8 +3381,14 @@
       <c r="Q46" s="4">
         <v>9.300000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="S46" s="4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="13" t="s">
         <v>44</v>
       </c>
@@ -3181,6 +3439,12 @@
       </c>
       <c r="Q47" s="4">
         <v>4.9</v>
+      </c>
+      <c r="R47" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="S47" s="4">
+        <v>5.3</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3306,6 +3570,12 @@
       <c r="Q50" s="4">
         <v>36</v>
       </c>
+      <c r="R50" s="4">
+        <v>51</v>
+      </c>
+      <c r="S50" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="3" t="s">
@@ -3359,6 +3629,12 @@
       <c r="Q51" s="4">
         <v>101</v>
       </c>
+      <c r="R51" s="4">
+        <v>120</v>
+      </c>
+      <c r="S51" s="4">
+        <v>122</v>
+      </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="5" t="s">
@@ -3412,6 +3688,12 @@
       <c r="Q52" s="4">
         <v>42</v>
       </c>
+      <c r="R52" s="4">
+        <v>53</v>
+      </c>
+      <c r="S52" s="4">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="5" t="s">
@@ -3465,6 +3747,12 @@
       <c r="Q53" s="4">
         <v>20</v>
       </c>
+      <c r="R53" s="4">
+        <v>20</v>
+      </c>
+      <c r="S53" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="6" t="s">
@@ -3518,6 +3806,12 @@
       <c r="Q54" s="4">
         <v>59</v>
       </c>
+      <c r="R54" s="4">
+        <v>61</v>
+      </c>
+      <c r="S54" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="6" t="s">
@@ -3571,6 +3865,12 @@
       <c r="Q55" s="4">
         <v>158</v>
       </c>
+      <c r="R55" s="4">
+        <v>169</v>
+      </c>
+      <c r="S55" s="4">
+        <v>191</v>
+      </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="7" t="s">
@@ -3624,6 +3924,12 @@
       <c r="Q56" s="4">
         <v>118</v>
       </c>
+      <c r="R56" s="4">
+        <v>135</v>
+      </c>
+      <c r="S56" s="4">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="7" t="s">
@@ -3677,6 +3983,12 @@
       <c r="Q57" s="4">
         <v>336</v>
       </c>
+      <c r="R57" s="4">
+        <v>361</v>
+      </c>
+      <c r="S57" s="4">
+        <v>352</v>
+      </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="8" t="s">
@@ -3730,6 +4042,12 @@
       <c r="Q58" s="4">
         <v>232</v>
       </c>
+      <c r="R58" s="4">
+        <v>254</v>
+      </c>
+      <c r="S58" s="4">
+        <v>244</v>
+      </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="8" t="s">
@@ -3783,6 +4101,12 @@
       <c r="Q59" s="4">
         <v>298</v>
       </c>
+      <c r="R59" s="4">
+        <v>284</v>
+      </c>
+      <c r="S59" s="4">
+        <v>316</v>
+      </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="9" t="s">
@@ -3836,6 +4160,12 @@
       <c r="Q60" s="4">
         <v>86</v>
       </c>
+      <c r="R60" s="4">
+        <v>109</v>
+      </c>
+      <c r="S60" s="4">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="9" t="s">
@@ -3889,6 +4219,12 @@
       <c r="Q61" s="4">
         <v>54</v>
       </c>
+      <c r="R61" s="4">
+        <v>36</v>
+      </c>
+      <c r="S61" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="10" t="s">
@@ -3942,6 +4278,12 @@
       <c r="Q62" s="4">
         <v>238</v>
       </c>
+      <c r="R62" s="4">
+        <v>279</v>
+      </c>
+      <c r="S62" s="4">
+        <v>325</v>
+      </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="10" t="s">
@@ -3995,6 +4337,12 @@
       <c r="Q63" s="4">
         <v>168</v>
       </c>
+      <c r="R63" s="4">
+        <v>224</v>
+      </c>
+      <c r="S63" s="4">
+        <v>204</v>
+      </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="11" t="s">
@@ -4048,6 +4396,12 @@
       <c r="Q64" s="4">
         <v>410</v>
       </c>
+      <c r="R64" s="4">
+        <v>416</v>
+      </c>
+      <c r="S64" s="4">
+        <v>412</v>
+      </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="11" t="s">
@@ -4101,6 +4455,12 @@
       <c r="Q65" s="4">
         <v>257</v>
       </c>
+      <c r="R65" s="4">
+        <v>294</v>
+      </c>
+      <c r="S65" s="4">
+        <v>319</v>
+      </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="12" t="s">
@@ -4154,6 +4514,12 @@
       <c r="Q66" s="4">
         <v>721</v>
       </c>
+      <c r="R66" s="4">
+        <v>783</v>
+      </c>
+      <c r="S66" s="4">
+        <v>836</v>
+      </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="12" t="s">
@@ -4207,6 +4573,12 @@
       <c r="Q67" s="4">
         <v>458</v>
       </c>
+      <c r="R67" s="4">
+        <v>455</v>
+      </c>
+      <c r="S67" s="4">
+        <v>487</v>
+      </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="13" t="s">
@@ -4260,6 +4632,12 @@
       <c r="Q68" s="4">
         <v>81</v>
       </c>
+      <c r="R68" s="4">
+        <v>104</v>
+      </c>
+      <c r="S68" s="4">
+        <v>118</v>
+      </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="13" t="s">
@@ -4313,6 +4691,12 @@
       <c r="Q69" s="4">
         <v>-19</v>
       </c>
+      <c r="R69" s="4">
+        <v>-53</v>
+      </c>
+      <c r="S69" s="4">
+        <v>-37</v>
+      </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="5" t="s">
@@ -4366,6 +4750,12 @@
       <c r="Q70" s="4">
         <v>9</v>
       </c>
+      <c r="R70" s="4">
+        <v>9</v>
+      </c>
+      <c r="S70" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="5" t="s">
@@ -4419,6 +4809,12 @@
       <c r="Q71" s="4">
         <v>37</v>
       </c>
+      <c r="R71" s="4">
+        <v>21</v>
+      </c>
+      <c r="S71" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
@@ -4543,6 +4939,12 @@
       <c r="Q74" s="4">
         <v>127.5</v>
       </c>
+      <c r="R74" s="4">
+        <v>136.7</v>
+      </c>
+      <c r="S74" s="4">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="3" t="s">
@@ -4596,6 +4998,12 @@
       <c r="Q75" s="4">
         <v>83.40000000000002</v>
       </c>
+      <c r="R75" s="4">
+        <v>90.60000000000002</v>
+      </c>
+      <c r="S75" s="4">
+        <v>97.80000000000003</v>
+      </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="5" t="s">
@@ -4649,6 +5057,12 @@
       <c r="Q76" s="4">
         <v>80.40000000000002</v>
       </c>
+      <c r="R76" s="4">
+        <v>86.30000000000003</v>
+      </c>
+      <c r="S76" s="4">
+        <v>93.20000000000003</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="5" t="s">
@@ -4702,6 +5116,12 @@
       <c r="Q77" s="4">
         <v>47</v>
       </c>
+      <c r="R77" s="4">
+        <v>47</v>
+      </c>
+      <c r="S77" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="6" t="s">
@@ -4755,6 +5175,12 @@
       <c r="Q78" s="4">
         <v>159.8</v>
       </c>
+      <c r="R78" s="4">
+        <v>171.3</v>
+      </c>
+      <c r="S78" s="4">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="6" t="s">
@@ -4808,6 +5234,12 @@
       <c r="Q79" s="4">
         <v>142.7</v>
       </c>
+      <c r="R79" s="4">
+        <v>154.7</v>
+      </c>
+      <c r="S79" s="4">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="7" t="s">
@@ -4861,8 +5293,14 @@
       <c r="Q80" s="4">
         <v>139.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="4">
+        <v>150.1</v>
+      </c>
+      <c r="S80" s="4">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="7" t="s">
         <v>32</v>
       </c>
@@ -4914,8 +5352,14 @@
       <c r="Q81" s="4">
         <v>174.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="4">
+        <v>189.7</v>
+      </c>
+      <c r="S81" s="4">
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="8" t="s">
         <v>33</v>
       </c>
@@ -4967,8 +5411,14 @@
       <c r="Q82" s="4">
         <v>347.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="4">
+        <v>371.2</v>
+      </c>
+      <c r="S82" s="4">
+        <v>394.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="8" t="s">
         <v>34</v>
       </c>
@@ -5020,8 +5470,14 @@
       <c r="Q83" s="4">
         <v>275.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83" s="4">
+        <v>295.3</v>
+      </c>
+      <c r="S83" s="4">
+        <v>314.9999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="9" t="s">
         <v>35</v>
       </c>
@@ -5073,8 +5529,14 @@
       <c r="Q84" s="4">
         <v>112.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84" s="4">
+        <v>121.6</v>
+      </c>
+      <c r="S84" s="4">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="9" t="s">
         <v>36</v>
       </c>
@@ -5126,8 +5588,14 @@
       <c r="Q85" s="4">
         <v>67.19999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85" s="4">
+        <v>72.39999999999998</v>
+      </c>
+      <c r="S85" s="4">
+        <v>78.09999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="10" t="s">
         <v>37</v>
       </c>
@@ -5179,8 +5647,14 @@
       <c r="Q86" s="4">
         <v>203.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="4">
+        <v>220.6</v>
+      </c>
+      <c r="S86" s="4">
+        <v>238.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="10" t="s">
         <v>38</v>
       </c>
@@ -5232,8 +5706,14 @@
       <c r="Q87" s="4">
         <v>129.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87" s="4">
+        <v>143.6</v>
+      </c>
+      <c r="S87" s="4">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="11" t="s">
         <v>39</v>
       </c>
@@ -5285,8 +5765,14 @@
       <c r="Q88" s="4">
         <v>391.8000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88" s="4">
+        <v>417.1000000000001</v>
+      </c>
+      <c r="S88" s="4">
+        <v>442.1000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="11" t="s">
         <v>40</v>
       </c>
@@ -5338,8 +5824,14 @@
       <c r="Q89" s="4">
         <v>301.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89" s="4">
+        <v>321.7</v>
+      </c>
+      <c r="S89" s="4">
+        <v>341.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="12" t="s">
         <v>41</v>
       </c>
@@ -5391,8 +5883,14 @@
       <c r="Q90" s="4">
         <v>447.1000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90" s="4">
+        <v>476.4000000000001</v>
+      </c>
+      <c r="S90" s="4">
+        <v>505.9000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="12" t="s">
         <v>42</v>
       </c>
@@ -5444,8 +5942,14 @@
       <c r="Q91" s="4">
         <v>307.8000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91" s="4">
+        <v>327.9000000000001</v>
+      </c>
+      <c r="S91" s="4">
+        <v>348.3000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="13" t="s">
         <v>43</v>
       </c>
@@ -5497,8 +6001,14 @@
       <c r="Q92" s="4">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="4">
+        <v>117.2</v>
+      </c>
+      <c r="S92" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="13" t="s">
         <v>44</v>
       </c>
@@ -5550,8 +6060,14 @@
       <c r="Q93" s="4">
         <v>65.90000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="S93" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5" t="s">
         <v>27</v>
       </c>
@@ -5603,8 +6119,14 @@
       <c r="Q94" s="4">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="4">
+        <v>18</v>
+      </c>
+      <c r="S94" s="4">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5" t="s">
         <v>28</v>
       </c>
@@ -5654,6 +6176,12 @@
         <v>20</v>
       </c>
       <c r="Q95" s="4">
+        <v>26</v>
+      </c>
+      <c r="R95" s="4">
+        <v>26</v>
+      </c>
+      <c r="S95" s="4">
         <v>26</v>
       </c>
     </row>
@@ -5780,6 +6308,12 @@
       <c r="Q98" s="4">
         <v>2.25</v>
       </c>
+      <c r="R98" s="4">
+        <v>3</v>
+      </c>
+      <c r="S98" s="4">
+        <v>3.388888888888889</v>
+      </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="3" t="s">
@@ -5833,6 +6367,12 @@
       <c r="Q99" s="4">
         <v>6.3125</v>
       </c>
+      <c r="R99" s="4">
+        <v>7.058823529411764</v>
+      </c>
+      <c r="S99" s="4">
+        <v>6.777777777777778</v>
+      </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="5" t="s">
@@ -5886,6 +6426,12 @@
       <c r="Q100" s="4">
         <v>2.625</v>
       </c>
+      <c r="R100" s="4">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="S100" s="4">
+        <v>4.611111111111111</v>
+      </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="5" t="s">
@@ -5939,6 +6485,12 @@
       <c r="Q101" s="4">
         <v>1.25</v>
       </c>
+      <c r="R101" s="4">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="S101" s="4">
+        <v>1.111111111111111</v>
+      </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="6" t="s">
@@ -5992,6 +6544,12 @@
       <c r="Q102" s="4">
         <v>3.6875</v>
       </c>
+      <c r="R102" s="4">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="S102" s="4">
+        <v>2.833333333333333</v>
+      </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="6" t="s">
@@ -6045,6 +6603,12 @@
       <c r="Q103" s="4">
         <v>9.875</v>
       </c>
+      <c r="R103" s="4">
+        <v>9.941176470588236</v>
+      </c>
+      <c r="S103" s="4">
+        <v>10.61111111111111</v>
+      </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="7" t="s">
@@ -6098,6 +6662,12 @@
       <c r="Q104" s="4">
         <v>7.375</v>
       </c>
+      <c r="R104" s="4">
+        <v>7.941176470588236</v>
+      </c>
+      <c r="S104" s="4">
+        <v>8.055555555555555</v>
+      </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" s="7" t="s">
@@ -6151,6 +6721,12 @@
       <c r="Q105" s="4">
         <v>21</v>
       </c>
+      <c r="R105" s="4">
+        <v>21.23529411764706</v>
+      </c>
+      <c r="S105" s="4">
+        <v>19.55555555555556</v>
+      </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="8" t="s">
@@ -6204,6 +6780,12 @@
       <c r="Q106" s="4">
         <v>14.5</v>
       </c>
+      <c r="R106" s="4">
+        <v>14.94117647058824</v>
+      </c>
+      <c r="S106" s="4">
+        <v>13.55555555555556</v>
+      </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" s="8" t="s">
@@ -6257,6 +6839,12 @@
       <c r="Q107" s="4">
         <v>18.625</v>
       </c>
+      <c r="R107" s="4">
+        <v>16.70588235294118</v>
+      </c>
+      <c r="S107" s="4">
+        <v>17.55555555555556</v>
+      </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="9" t="s">
@@ -6310,6 +6898,12 @@
       <c r="Q108" s="4">
         <v>5.375</v>
       </c>
+      <c r="R108" s="4">
+        <v>6.411764705882353</v>
+      </c>
+      <c r="S108" s="4">
+        <v>6.722222222222222</v>
+      </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="9" t="s">
@@ -6363,6 +6957,12 @@
       <c r="Q109" s="4">
         <v>3.375</v>
       </c>
+      <c r="R109" s="4">
+        <v>2.117647058823529</v>
+      </c>
+      <c r="S109" s="4">
+        <v>2.944444444444445</v>
+      </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" s="10" t="s">
@@ -6416,6 +7016,12 @@
       <c r="Q110" s="4">
         <v>14.875</v>
       </c>
+      <c r="R110" s="4">
+        <v>16.41176470588235</v>
+      </c>
+      <c r="S110" s="4">
+        <v>18.05555555555556</v>
+      </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="10" t="s">
@@ -6469,6 +7075,12 @@
       <c r="Q111" s="4">
         <v>10.5</v>
       </c>
+      <c r="R111" s="4">
+        <v>13.17647058823529</v>
+      </c>
+      <c r="S111" s="4">
+        <v>11.33333333333333</v>
+      </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="11" t="s">
@@ -6522,6 +7134,12 @@
       <c r="Q112" s="4">
         <v>25.625</v>
       </c>
+      <c r="R112" s="4">
+        <v>24.47058823529412</v>
+      </c>
+      <c r="S112" s="4">
+        <v>22.88888888888889</v>
+      </c>
     </row>
     <row r="113" spans="1:23">
       <c r="A113" s="11" t="s">
@@ -6575,6 +7193,12 @@
       <c r="Q113" s="4">
         <v>16.0625</v>
       </c>
+      <c r="R113" s="4">
+        <v>17.29411764705882</v>
+      </c>
+      <c r="S113" s="4">
+        <v>17.72222222222222</v>
+      </c>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" s="12" t="s">
@@ -6628,6 +7252,12 @@
       <c r="Q114" s="4">
         <v>45.0625</v>
       </c>
+      <c r="R114" s="4">
+        <v>46.05882352941177</v>
+      </c>
+      <c r="S114" s="4">
+        <v>46.44444444444444</v>
+      </c>
     </row>
     <row r="115" spans="1:23">
       <c r="A115" s="12" t="s">
@@ -6681,6 +7311,12 @@
       <c r="Q115" s="4">
         <v>28.625</v>
       </c>
+      <c r="R115" s="4">
+        <v>26.76470588235294</v>
+      </c>
+      <c r="S115" s="4">
+        <v>27.05555555555556</v>
+      </c>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="13" t="s">
@@ -6734,6 +7370,12 @@
       <c r="Q116" s="4">
         <v>5.0625</v>
       </c>
+      <c r="R116" s="4">
+        <v>6.117647058823529</v>
+      </c>
+      <c r="S116" s="4">
+        <v>6.555555555555555</v>
+      </c>
     </row>
     <row r="117" spans="1:23">
       <c r="A117" s="13" t="s">
@@ -6787,6 +7429,12 @@
       <c r="Q117" s="4">
         <v>-1.1875</v>
       </c>
+      <c r="R117" s="4">
+        <v>-3.117647058823529</v>
+      </c>
+      <c r="S117" s="4">
+        <v>-2.055555555555555</v>
+      </c>
     </row>
     <row r="118" spans="1:23">
       <c r="A118" s="5" t="s">
@@ -6840,6 +7488,12 @@
       <c r="Q118" s="4">
         <v>0.5625</v>
       </c>
+      <c r="R118" s="4">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="S118" s="4">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="119" spans="1:23">
       <c r="A119" s="5" t="s">
@@ -6893,6 +7547,12 @@
       <c r="Q119" s="4">
         <v>2.3125</v>
       </c>
+      <c r="R119" s="4">
+        <v>1.235294117647059</v>
+      </c>
+      <c r="S119" s="4">
+        <v>1.166666666666667</v>
+      </c>
     </row>
     <row r="121" spans="1:23">
       <c r="A121" s="1" t="s">
@@ -7017,6 +7677,12 @@
       <c r="Q122" s="4">
         <v>7.968750000000002</v>
       </c>
+      <c r="R122" s="4">
+        <v>8.041176470588237</v>
+      </c>
+      <c r="S122" s="4">
+        <v>8.133333333333333</v>
+      </c>
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="3" t="s">
@@ -7070,6 +7736,12 @@
       <c r="Q123" s="4">
         <v>5.212500000000001</v>
       </c>
+      <c r="R123" s="4">
+        <v>5.329411764705884</v>
+      </c>
+      <c r="S123" s="4">
+        <v>5.433333333333334</v>
+      </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="5" t="s">
@@ -7123,6 +7795,12 @@
       <c r="Q124" s="4">
         <v>5.025000000000001</v>
       </c>
+      <c r="R124" s="4">
+        <v>5.076470588235296</v>
+      </c>
+      <c r="S124" s="4">
+        <v>5.17777777777778</v>
+      </c>
     </row>
     <row r="125" spans="1:23">
       <c r="A125" s="5" t="s">
@@ -7176,6 +7854,12 @@
       <c r="Q125" s="4">
         <v>2.9375</v>
       </c>
+      <c r="R125" s="4">
+        <v>2.764705882352941</v>
+      </c>
+      <c r="S125" s="4">
+        <v>2.611111111111111</v>
+      </c>
     </row>
     <row r="126" spans="1:23">
       <c r="A126" s="6" t="s">
@@ -7229,6 +7913,12 @@
       <c r="Q126" s="4">
         <v>9.987500000000001</v>
       </c>
+      <c r="R126" s="4">
+        <v>10.0764705882353</v>
+      </c>
+      <c r="S126" s="4">
+        <v>10.15555555555556</v>
+      </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127" s="6" t="s">
@@ -7282,6 +7972,12 @@
       <c r="Q127" s="4">
         <v>8.918749999999999</v>
       </c>
+      <c r="R127" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="S127" s="4">
+        <v>9.316666666666666</v>
+      </c>
     </row>
     <row r="128" spans="1:23">
       <c r="A128" s="7" t="s">
@@ -7335,8 +8031,14 @@
       <c r="Q128" s="4">
         <v>8.693749999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128" s="4">
+        <v>8.829411764705881</v>
+      </c>
+      <c r="S128" s="4">
+        <v>8.977777777777776</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="7" t="s">
         <v>32</v>
       </c>
@@ -7388,8 +8090,14 @@
       <c r="Q129" s="4">
         <v>10.89375</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129" s="4">
+        <v>11.15882352941177</v>
+      </c>
+      <c r="S129" s="4">
+        <v>11.38333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="8" t="s">
         <v>33</v>
       </c>
@@ -7441,8 +8149,14 @@
       <c r="Q130" s="4">
         <v>21.74375</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130" s="4">
+        <v>21.83529411764706</v>
+      </c>
+      <c r="S130" s="4">
+        <v>21.90555555555556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="8" t="s">
         <v>34</v>
       </c>
@@ -7494,8 +8208,14 @@
       <c r="Q131" s="4">
         <v>17.24375</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131" s="4">
+        <v>17.37058823529411</v>
+      </c>
+      <c r="S131" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="9" t="s">
         <v>35</v>
       </c>
@@ -7547,8 +8267,14 @@
       <c r="Q132" s="4">
         <v>7.018749999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132" s="4">
+        <v>7.152941176470587</v>
+      </c>
+      <c r="S132" s="4">
+        <v>7.299999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="9" t="s">
         <v>36</v>
       </c>
@@ -7600,8 +8326,14 @@
       <c r="Q133" s="4">
         <v>4.199999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133" s="4">
+        <v>4.258823529411764</v>
+      </c>
+      <c r="S133" s="4">
+        <v>4.338888888888888</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="10" t="s">
         <v>37</v>
       </c>
@@ -7653,8 +8385,14 @@
       <c r="Q134" s="4">
         <v>12.725</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134" s="4">
+        <v>12.9764705882353</v>
+      </c>
+      <c r="S134" s="4">
+        <v>13.25555555555556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="10" t="s">
         <v>38</v>
       </c>
@@ -7706,8 +8444,14 @@
       <c r="Q135" s="4">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135" s="4">
+        <v>8.447058823529412</v>
+      </c>
+      <c r="S135" s="4">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="11" t="s">
         <v>39</v>
       </c>
@@ -7759,8 +8503,14 @@
       <c r="Q136" s="4">
         <v>24.4875</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136" s="4">
+        <v>24.53529411764706</v>
+      </c>
+      <c r="S136" s="4">
+        <v>24.56111111111112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="11" t="s">
         <v>40</v>
       </c>
@@ -7812,8 +8562,14 @@
       <c r="Q137" s="4">
         <v>18.8625</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137" s="4">
+        <v>18.9235294117647</v>
+      </c>
+      <c r="S137" s="4">
+        <v>18.99444444444444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="12" t="s">
         <v>41</v>
       </c>
@@ -7865,8 +8621,14 @@
       <c r="Q138" s="4">
         <v>27.94375</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138" s="4">
+        <v>28.02352941176471</v>
+      </c>
+      <c r="S138" s="4">
+        <v>28.10555555555556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="12" t="s">
         <v>42</v>
       </c>
@@ -7918,8 +8680,14 @@
       <c r="Q139" s="4">
         <v>19.2375</v>
       </c>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139" s="4">
+        <v>19.28823529411765</v>
+      </c>
+      <c r="S139" s="4">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="13" t="s">
         <v>43</v>
       </c>
@@ -7971,8 +8739,14 @@
       <c r="Q140" s="4">
         <v>6.68125</v>
       </c>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140" s="4">
+        <v>6.894117647058824</v>
+      </c>
+      <c r="S140" s="4">
+        <v>7.111111111111111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="13" t="s">
         <v>44</v>
       </c>
@@ -8024,8 +8798,14 @@
       <c r="Q141" s="4">
         <v>4.11875</v>
       </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141" s="4">
+        <v>4.158823529411765</v>
+      </c>
+      <c r="S141" s="4">
+        <v>4.222222222222222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="5" t="s">
         <v>27</v>
       </c>
@@ -8077,8 +8857,14 @@
       <c r="Q142" s="4">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142" s="4">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="S142" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="5" t="s">
         <v>28</v>
       </c>
@@ -8129,6 +8915,12 @@
       </c>
       <c r="Q143" s="4">
         <v>1.625</v>
+      </c>
+      <c r="R143" s="4">
+        <v>1.529411764705882</v>
+      </c>
+      <c r="S143" s="4">
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -8254,6 +9046,12 @@
       <c r="Q146" s="4">
         <v>-1.931818181818182</v>
       </c>
+      <c r="R146" s="4">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="S146" s="4">
+        <v>1.086956521739131</v>
+      </c>
     </row>
     <row r="147" spans="1:23">
       <c r="A147" s="3" t="s">
@@ -8307,6 +9105,12 @@
       <c r="Q147" s="4">
         <v>1.290322580645161</v>
       </c>
+      <c r="R147" s="4">
+        <v>2.835820895522388</v>
+      </c>
+      <c r="S147" s="4">
+        <v>0.2777777777777778</v>
+      </c>
     </row>
     <row r="148" spans="1:23">
       <c r="A148" s="5" t="s">
@@ -8360,6 +9164,12 @@
       <c r="Q148" s="4">
         <v>0.3703703703703703</v>
       </c>
+      <c r="R148" s="4">
+        <v>2.037037037037037</v>
+      </c>
+      <c r="S148" s="4">
+        <v>5.084745762711864</v>
+      </c>
     </row>
     <row r="149" spans="1:23">
       <c r="A149" s="5" t="s">
@@ -8413,6 +9223,12 @@
       <c r="Q149" s="4">
         <v>0</v>
       </c>
+      <c r="R149" s="4">
+        <v>0</v>
+      </c>
+      <c r="S149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:23">
       <c r="A150" s="6" t="s">
@@ -8466,6 +9282,12 @@
       <c r="Q150" s="4">
         <v>0.9090909090909091</v>
       </c>
+      <c r="R150" s="4">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="S150" s="4">
+        <v>-0.8695652173913043</v>
+      </c>
     </row>
     <row r="151" spans="1:23">
       <c r="A151" s="6" t="s">
@@ -8519,6 +9341,12 @@
       <c r="Q151" s="4">
         <v>0.6363636363636364</v>
       </c>
+      <c r="R151" s="4">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="S151" s="4">
+        <v>1.833333333333333</v>
+      </c>
     </row>
     <row r="152" spans="1:23">
       <c r="A152" s="7" t="s">
@@ -8572,6 +9400,12 @@
       <c r="Q152" s="4">
         <v>-1.320754716981132</v>
       </c>
+      <c r="R152" s="4">
+        <v>1.619047619047619</v>
+      </c>
+      <c r="S152" s="4">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="153" spans="1:23">
       <c r="A153" s="7" t="s">
@@ -8625,6 +9459,12 @@
       <c r="Q153" s="4">
         <v>1.194029850746269</v>
       </c>
+      <c r="R153" s="4">
+        <v>1.736111111111111</v>
+      </c>
+      <c r="S153" s="4">
+        <v>-0.5844155844155844</v>
+      </c>
     </row>
     <row r="154" spans="1:23">
       <c r="A154" s="8" t="s">
@@ -8678,6 +9518,12 @@
       <c r="Q154" s="4">
         <v>0.9691629955947136</v>
       </c>
+      <c r="R154" s="4">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="S154" s="4">
+        <v>-0.4291845493562232</v>
+      </c>
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="8" t="s">
@@ -8731,6 +9577,12 @@
       <c r="Q155" s="4">
         <v>0.9183673469387754</v>
       </c>
+      <c r="R155" s="4">
+        <v>-0.7035175879396985</v>
+      </c>
+      <c r="S155" s="4">
+        <v>1.649484536082474</v>
+      </c>
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="9" t="s">
@@ -8784,6 +9636,12 @@
       <c r="Q156" s="4">
         <v>0.4819277108433734</v>
       </c>
+      <c r="R156" s="4">
+        <v>2.771084337349397</v>
+      </c>
+      <c r="S156" s="4">
+        <v>1.290322580645161</v>
+      </c>
     </row>
     <row r="157" spans="1:23">
       <c r="A157" s="9" t="s">
@@ -8837,6 +9695,12 @@
       <c r="Q157" s="4">
         <v>2.083333333333333</v>
       </c>
+      <c r="R157" s="4">
+        <v>-3.39622641509434</v>
+      </c>
+      <c r="S157" s="4">
+        <v>3.269230769230769</v>
+      </c>
     </row>
     <row r="158" spans="1:23">
       <c r="A158" s="10" t="s">
@@ -8890,6 +9754,12 @@
       <c r="Q158" s="4">
         <v>1.974522292993631</v>
       </c>
+      <c r="R158" s="4">
+        <v>2.455089820359281</v>
+      </c>
+      <c r="S158" s="4">
+        <v>2.705882352941177</v>
+      </c>
     </row>
     <row r="159" spans="1:23">
       <c r="A159" s="10" t="s">
@@ -8943,6 +9813,12 @@
       <c r="Q159" s="4">
         <v>3.181818181818182</v>
       </c>
+      <c r="R159" s="4">
+        <v>4.48</v>
+      </c>
+      <c r="S159" s="4">
+        <v>-1.428571428571429</v>
+      </c>
     </row>
     <row r="160" spans="1:23">
       <c r="A160" s="11" t="s">
@@ -8996,6 +9872,12 @@
       <c r="Q160" s="4">
         <v>0.7843137254901961</v>
       </c>
+      <c r="R160" s="4">
+        <v>0.234375</v>
+      </c>
+      <c r="S160" s="4">
+        <v>-0.158102766798419</v>
+      </c>
     </row>
     <row r="161" spans="1:23">
       <c r="A161" s="11" t="s">
@@ -9049,6 +9931,12 @@
       <c r="Q161" s="4">
         <v>0.7253886010362695</v>
       </c>
+      <c r="R161" s="4">
+        <v>1.887755102040816</v>
+      </c>
+      <c r="S161" s="4">
+        <v>1.256281407035176</v>
+      </c>
     </row>
     <row r="162" spans="1:23">
       <c r="A162" s="12" t="s">
@@ -9102,6 +9990,12 @@
       <c r="Q162" s="4">
         <v>1.626297577854671</v>
       </c>
+      <c r="R162" s="4">
+        <v>2.130584192439863</v>
+      </c>
+      <c r="S162" s="4">
+        <v>1.808873720136519</v>
+      </c>
     </row>
     <row r="163" spans="1:23">
       <c r="A163" s="12" t="s">
@@ -9155,6 +10049,12 @@
       <c r="Q163" s="4">
         <v>-0.5288461538461539</v>
       </c>
+      <c r="R163" s="4">
+        <v>-0.1477832512315271</v>
+      </c>
+      <c r="S163" s="4">
+        <v>1.592039800995025</v>
+      </c>
     </row>
     <row r="164" spans="1:23">
       <c r="A164" s="13" t="s">
@@ -9208,6 +10108,12 @@
       <c r="Q164" s="4">
         <v>-1.595744680851064</v>
       </c>
+      <c r="R164" s="4">
+        <v>2.473118279569892</v>
+      </c>
+      <c r="S164" s="4">
+        <v>1.359223300970874</v>
+      </c>
     </row>
     <row r="165" spans="1:23">
       <c r="A165" s="13" t="s">
@@ -9261,6 +10167,12 @@
       <c r="Q165" s="4">
         <v>-4.2</v>
       </c>
+      <c r="R165" s="4">
+        <v>-6.938775510204081</v>
+      </c>
+      <c r="S165" s="4">
+        <v>3.333333333333333</v>
+      </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="5" t="s">
@@ -9314,6 +10226,12 @@
       <c r="Q166" s="4">
         <v>0</v>
       </c>
+      <c r="R166" s="4">
+        <v>0</v>
+      </c>
+      <c r="S166" s="4">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="167" spans="1:23">
       <c r="A167" s="5" t="s">
@@ -9367,6 +10285,12 @@
       <c r="Q167" s="4">
         <v>0.9090909090909091</v>
       </c>
+      <c r="R167" s="4">
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="S167" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="1" t="s">
@@ -9491,6 +10415,12 @@
       <c r="Q170" s="4">
         <v>0.3032855939342881</v>
       </c>
+      <c r="R170" s="4">
+        <v>0.4003139717425431</v>
+      </c>
+      <c r="S170" s="4">
+        <v>0.4465592972181551</v>
+      </c>
     </row>
     <row r="171" spans="1:23">
       <c r="A171" s="3" t="s">
@@ -9544,6 +10474,12 @@
       <c r="Q171" s="4">
         <v>1.237745098039215</v>
       </c>
+      <c r="R171" s="4">
+        <v>1.359003397508493</v>
+      </c>
+      <c r="S171" s="4">
+        <v>1.277486910994764</v>
+      </c>
     </row>
     <row r="172" spans="1:23">
       <c r="A172" s="5" t="s">
@@ -9597,6 +10533,12 @@
       <c r="Q172" s="4">
         <v>0.5263157894736842</v>
       </c>
+      <c r="R172" s="4">
+        <v>0.6220657276995304</v>
+      </c>
+      <c r="S172" s="4">
+        <v>0.9110867178924257</v>
+      </c>
     </row>
     <row r="173" spans="1:23">
       <c r="A173" s="5" t="s">
@@ -9650,6 +10592,12 @@
       <c r="Q173" s="4">
         <v>0.5263157894736842</v>
       </c>
+      <c r="R173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="S173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="174" spans="1:23">
       <c r="A174" s="6" t="s">
@@ -9703,6 +10651,12 @@
       <c r="Q174" s="4">
         <v>0.3743654822335025</v>
       </c>
+      <c r="R174" s="4">
+        <v>0.3607332939089296</v>
+      </c>
+      <c r="S174" s="4">
+        <v>0.2823920265780731</v>
+      </c>
     </row>
     <row r="175" spans="1:23">
       <c r="A175" s="6" t="s">
@@ -9756,6 +10710,12 @@
       <c r="Q175" s="4">
         <v>1.133428981348637</v>
       </c>
+      <c r="R175" s="4">
+        <v>1.119946984758118</v>
+      </c>
+      <c r="S175" s="4">
+        <v>1.172498465316145</v>
+      </c>
     </row>
     <row r="176" spans="1:23">
       <c r="A176" s="7" t="s">
@@ -9809,8 +10769,14 @@
       <c r="Q176" s="4">
         <v>0.9394904458598728</v>
       </c>
-    </row>
-    <row r="177" spans="1:17">
+      <c r="R176" s="4">
+        <v>0.9919177075679649</v>
+      </c>
+      <c r="S176" s="4">
+        <v>0.9857239972807617</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="7" t="s">
         <v>32</v>
       </c>
@@ -9862,8 +10828,14 @@
       <c r="Q177" s="4">
         <v>1.995249406175772</v>
       </c>
-    </row>
-    <row r="178" spans="1:17">
+      <c r="R177" s="4">
+        <v>1.974835886214442</v>
+      </c>
+      <c r="S177" s="4">
+        <v>1.77598385469223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="8" t="s">
         <v>33</v>
       </c>
@@ -9915,8 +10887,14 @@
       <c r="Q178" s="4">
         <v>0.6705202312138728</v>
       </c>
-    </row>
-    <row r="179" spans="1:17">
+      <c r="R178" s="4">
+        <v>0.6883468834688347</v>
+      </c>
+      <c r="S178" s="4">
+        <v>0.6219729798623502</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="8" t="s">
         <v>34</v>
       </c>
@@ -9968,8 +10946,14 @@
       <c r="Q179" s="4">
         <v>1.090775988286969</v>
       </c>
-    </row>
-    <row r="180" spans="1:17">
+      <c r="R179" s="4">
+        <v>0.9689525759126579</v>
+      </c>
+      <c r="S179" s="4">
+        <v>1.0112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="9" t="s">
         <v>35</v>
       </c>
@@ -10021,8 +11005,14 @@
       <c r="Q180" s="4">
         <v>0.8245445829338448</v>
       </c>
-    </row>
-    <row r="181" spans="1:17">
+      <c r="R180" s="4">
+        <v>0.9680284191829487</v>
+      </c>
+      <c r="S180" s="4">
+        <v>0.9926168990976212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="9" t="s">
         <v>36</v>
       </c>
@@ -10074,8 +11064,14 @@
       <c r="Q181" s="4">
         <v>1.005586592178771</v>
       </c>
-    </row>
-    <row r="182" spans="1:17">
+      <c r="R181" s="4">
+        <v>0.610169491525424</v>
+      </c>
+      <c r="S181" s="4">
+        <v>0.8255451713395642</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="10" t="s">
         <v>37</v>
       </c>
@@ -10127,8 +11123,14 @@
       <c r="Q182" s="4">
         <v>1.274089935760171</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="R182" s="4">
+        <v>1.371007371007371</v>
+      </c>
+      <c r="S182" s="4">
+        <v>1.473922902494331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="10" t="s">
         <v>38</v>
       </c>
@@ -10180,8 +11182,14 @@
       <c r="Q183" s="4">
         <v>1.354838709677419</v>
       </c>
-    </row>
-    <row r="184" spans="1:17">
+      <c r="R183" s="4">
+        <v>1.641025641025641</v>
+      </c>
+      <c r="S183" s="4">
+        <v>1.355481727574751</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="11" t="s">
         <v>39</v>
       </c>
@@ -10233,8 +11241,14 @@
       <c r="Q184" s="4">
         <v>1.051551679917928</v>
       </c>
-    </row>
-    <row r="185" spans="1:17">
+      <c r="R184" s="4">
+        <v>1.001203369434416</v>
+      </c>
+      <c r="S184" s="4">
+        <v>0.9346642468239563</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="11" t="s">
         <v>40</v>
       </c>
@@ -10286,8 +11300,14 @@
       <c r="Q185" s="4">
         <v>0.8543882978723404</v>
       </c>
-    </row>
-    <row r="186" spans="1:17">
+      <c r="R185" s="4">
+        <v>0.9176029962546816</v>
+      </c>
+      <c r="S185" s="4">
+        <v>0.9374081692624154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
@@ -10339,8 +11359,14 @@
       <c r="Q186" s="4">
         <v>1.620224719101123</v>
       </c>
-    </row>
-    <row r="187" spans="1:17">
+      <c r="R186" s="4">
+        <v>1.651550305842649</v>
+      </c>
+      <c r="S186" s="4">
+        <v>1.660707191100516</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="12" t="s">
         <v>42</v>
       </c>
@@ -10392,8 +11418,14 @@
       <c r="Q187" s="4">
         <v>1.49869109947644</v>
       </c>
-    </row>
-    <row r="188" spans="1:17">
+      <c r="R187" s="4">
+        <v>1.396133783369131</v>
+      </c>
+      <c r="S187" s="4">
+        <v>1.407514450867052</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="13" t="s">
         <v>43</v>
       </c>
@@ -10445,8 +11477,14 @@
       <c r="Q188" s="4">
         <v>0.8265306122448979</v>
       </c>
-    </row>
-    <row r="189" spans="1:17">
+      <c r="R188" s="4">
+        <v>0.9692451071761415</v>
+      </c>
+      <c r="S188" s="4">
+        <v>1.003401360544218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="13" t="s">
         <v>44</v>
       </c>
@@ -10498,8 +11536,14 @@
       <c r="Q189" s="4">
         <v>-0.3094462540716613</v>
       </c>
-    </row>
-    <row r="190" spans="1:17">
+      <c r="R189" s="4">
+        <v>-0.799396681749623</v>
+      </c>
+      <c r="S189" s="4">
+        <v>-0.5203938115330521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="5" t="s">
         <v>27</v>
       </c>
@@ -10551,8 +11595,14 @@
       <c r="Q190" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:17">
+      <c r="R190" s="4">
+        <v>1</v>
+      </c>
+      <c r="S190" s="4">
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="5" t="s">
         <v>28</v>
       </c>
@@ -10603,6 +11653,12 @@
       </c>
       <c r="Q191" s="4">
         <v>1.85</v>
+      </c>
+      <c r="R191" s="4">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="S191" s="4">
+        <v>0.8076923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -10741,6 +11797,12 @@
       <c r="Q2" s="4">
         <v>-10</v>
       </c>
+      <c r="R2" s="4">
+        <v>39</v>
+      </c>
+      <c r="S2" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
@@ -10794,6 +11856,12 @@
       <c r="Q3" s="4">
         <v>15</v>
       </c>
+      <c r="R3" s="4">
+        <v>-4</v>
+      </c>
+      <c r="S3" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
@@ -10847,6 +11915,12 @@
       <c r="Q4" s="4">
         <v>20</v>
       </c>
+      <c r="R4" s="4">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7" t="s">
@@ -10900,6 +11974,12 @@
       <c r="Q5" s="4">
         <v>7</v>
       </c>
+      <c r="R5" s="4">
+        <v>47</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="8" t="s">
@@ -10953,6 +12033,12 @@
       <c r="Q6" s="4">
         <v>65</v>
       </c>
+      <c r="R6" s="4">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
@@ -11006,6 +12092,12 @@
       <c r="Q7" s="4">
         <v>15</v>
       </c>
+      <c r="R7" s="4">
+        <v>6</v>
+      </c>
+      <c r="S7" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="10" t="s">
@@ -11059,6 +12151,12 @@
       <c r="Q8" s="4">
         <v>66</v>
       </c>
+      <c r="R8" s="4">
+        <v>110</v>
+      </c>
+      <c r="S8" s="4">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="11" t="s">
@@ -11112,6 +12210,12 @@
       <c r="Q9" s="4">
         <v>44</v>
       </c>
+      <c r="R9" s="4">
+        <v>53</v>
+      </c>
+      <c r="S9" s="4">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="12" t="s">
@@ -11165,6 +12269,12 @@
       <c r="Q10" s="4">
         <v>46</v>
       </c>
+      <c r="R10" s="4">
+        <v>64</v>
+      </c>
+      <c r="S10" s="4">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="13" t="s">
@@ -11218,6 +12328,12 @@
       <c r="Q11" s="4">
         <v>-35</v>
       </c>
+      <c r="R11" s="4">
+        <v>-10</v>
+      </c>
+      <c r="S11" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
@@ -11342,6 +12458,12 @@
       <c r="Q14" s="4">
         <v>6.2</v>
       </c>
+      <c r="R14" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
@@ -11395,6 +12517,12 @@
       <c r="Q15" s="4">
         <v>6.8</v>
       </c>
+      <c r="R15" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="S15" s="4">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
@@ -11448,6 +12576,12 @@
       <c r="Q16" s="4">
         <v>11.7</v>
       </c>
+      <c r="R16" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7" t="s">
@@ -11501,6 +12635,12 @@
       <c r="Q17" s="4">
         <v>11.5</v>
       </c>
+      <c r="R17" s="4">
+        <v>12</v>
+      </c>
+      <c r="S17" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
@@ -11554,6 +12694,12 @@
       <c r="Q18" s="4">
         <v>24.1</v>
       </c>
+      <c r="R18" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="S18" s="4">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="9" t="s">
@@ -11607,6 +12753,12 @@
       <c r="Q19" s="4">
         <v>6.9</v>
       </c>
+      <c r="R19" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="S19" s="4">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="10" t="s">
@@ -11660,6 +12812,12 @@
       <c r="Q20" s="4">
         <v>15.3</v>
       </c>
+      <c r="R20" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="S20" s="4">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="11" t="s">
@@ -11713,6 +12871,12 @@
       <c r="Q21" s="4">
         <v>25.8</v>
       </c>
+      <c r="R21" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="S21" s="4">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
@@ -11766,6 +12930,12 @@
       <c r="Q22" s="4">
         <v>29.2</v>
       </c>
+      <c r="R22" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="S22" s="4">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="13" t="s">
@@ -11819,6 +12989,12 @@
       <c r="Q23" s="4">
         <v>6.9</v>
       </c>
+      <c r="R23" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="S23" s="4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
@@ -11943,6 +13119,12 @@
       <c r="Q26" s="4">
         <v>160</v>
       </c>
+      <c r="R26" s="4">
+        <v>199</v>
+      </c>
+      <c r="S26" s="4">
+        <v>214</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
@@ -11996,6 +13178,12 @@
       <c r="Q27" s="4">
         <v>152</v>
       </c>
+      <c r="R27" s="4">
+        <v>148</v>
+      </c>
+      <c r="S27" s="4">
+        <v>182</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="6" t="s">
@@ -12049,6 +13237,12 @@
       <c r="Q28" s="4">
         <v>295</v>
       </c>
+      <c r="R28" s="4">
+        <v>318</v>
+      </c>
+      <c r="S28" s="4">
+        <v>345</v>
+      </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="7" t="s">
@@ -12102,6 +13296,12 @@
       <c r="Q29" s="4">
         <v>552</v>
       </c>
+      <c r="R29" s="4">
+        <v>599</v>
+      </c>
+      <c r="S29" s="4">
+        <v>599</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="8" t="s">
@@ -12155,6 +13355,12 @@
       <c r="Q30" s="4">
         <v>737</v>
       </c>
+      <c r="R30" s="4">
+        <v>755</v>
+      </c>
+      <c r="S30" s="4">
+        <v>790</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="9" t="s">
@@ -12208,6 +13414,12 @@
       <c r="Q31" s="4">
         <v>191</v>
       </c>
+      <c r="R31" s="4">
+        <v>197</v>
+      </c>
+      <c r="S31" s="4">
+        <v>227</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="10" t="s">
@@ -12261,6 +13473,12 @@
       <c r="Q32" s="4">
         <v>538</v>
       </c>
+      <c r="R32" s="4">
+        <v>648</v>
+      </c>
+      <c r="S32" s="4">
+        <v>684</v>
+      </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="11" t="s">
@@ -12314,6 +13532,12 @@
       <c r="Q33" s="4">
         <v>787</v>
       </c>
+      <c r="R33" s="4">
+        <v>840</v>
+      </c>
+      <c r="S33" s="4">
+        <v>871</v>
+      </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="12" t="s">
@@ -12367,6 +13591,12 @@
       <c r="Q34" s="4">
         <v>1367</v>
       </c>
+      <c r="R34" s="4">
+        <v>1431</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1526</v>
+      </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="13" t="s">
@@ -12420,6 +13650,12 @@
       <c r="Q35" s="4">
         <v>91</v>
       </c>
+      <c r="R35" s="4">
+        <v>81</v>
+      </c>
+      <c r="S35" s="4">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1" t="s">
@@ -12544,6 +13780,12 @@
       <c r="Q38" s="4">
         <v>97.40000000000001</v>
       </c>
+      <c r="R38" s="4">
+        <v>104.1</v>
+      </c>
+      <c r="S38" s="4">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="5" t="s">
@@ -12597,6 +13839,12 @@
       <c r="Q39" s="4">
         <v>99</v>
       </c>
+      <c r="R39" s="4">
+        <v>105.7</v>
+      </c>
+      <c r="S39" s="4">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="6" t="s">
@@ -12650,6 +13898,12 @@
       <c r="Q40" s="4">
         <v>167.6</v>
       </c>
+      <c r="R40" s="4">
+        <v>179.8</v>
+      </c>
+      <c r="S40" s="4">
+        <v>192.4999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
@@ -12703,6 +13957,12 @@
       <c r="Q41" s="4">
         <v>139</v>
       </c>
+      <c r="R41" s="4">
+        <v>151</v>
+      </c>
+      <c r="S41" s="4">
+        <v>163</v>
+      </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="8" t="s">
@@ -12756,6 +14016,12 @@
       <c r="Q42" s="4">
         <v>364.1</v>
       </c>
+      <c r="R42" s="4">
+        <v>388.3</v>
+      </c>
+      <c r="S42" s="4">
+        <v>412.6</v>
+      </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="9" t="s">
@@ -12809,6 +14075,12 @@
       <c r="Q43" s="4">
         <v>86.30000000000001</v>
       </c>
+      <c r="R43" s="4">
+        <v>93.20000000000002</v>
+      </c>
+      <c r="S43" s="4">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="10" t="s">
@@ -12862,6 +14134,12 @@
       <c r="Q44" s="4">
         <v>171.3</v>
       </c>
+      <c r="R44" s="4">
+        <v>187.6</v>
+      </c>
+      <c r="S44" s="4">
+        <v>204</v>
+      </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="11" t="s">
@@ -12915,6 +14193,12 @@
       <c r="Q45" s="4">
         <v>405.1</v>
       </c>
+      <c r="R45" s="4">
+        <v>430.9999999999999</v>
+      </c>
+      <c r="S45" s="4">
+        <v>456.8999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="12" t="s">
@@ -12968,6 +14252,12 @@
       <c r="Q46" s="4">
         <v>448.4</v>
       </c>
+      <c r="R46" s="4">
+        <v>477.7</v>
+      </c>
+      <c r="S46" s="4">
+        <v>507.1</v>
+      </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="13" t="s">
@@ -13021,6 +14311,12 @@
       <c r="Q47" s="4">
         <v>86.5</v>
       </c>
+      <c r="R47" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="S47" s="4">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="1" t="s">
@@ -13145,6 +14441,12 @@
       <c r="Q50" s="4">
         <v>10</v>
       </c>
+      <c r="R50" s="4">
+        <v>11.70588235294118</v>
+      </c>
+      <c r="S50" s="4">
+        <v>11.88888888888889</v>
+      </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="5" t="s">
@@ -13198,6 +14500,12 @@
       <c r="Q51" s="4">
         <v>9.5</v>
       </c>
+      <c r="R51" s="4">
+        <v>8.705882352941176</v>
+      </c>
+      <c r="S51" s="4">
+        <v>10.11111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="6" t="s">
@@ -13251,6 +14559,12 @@
       <c r="Q52" s="4">
         <v>18.4375</v>
       </c>
+      <c r="R52" s="4">
+        <v>18.70588235294118</v>
+      </c>
+      <c r="S52" s="4">
+        <v>19.16666666666667</v>
+      </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="7" t="s">
@@ -13304,6 +14618,12 @@
       <c r="Q53" s="4">
         <v>34.5</v>
       </c>
+      <c r="R53" s="4">
+        <v>35.23529411764706</v>
+      </c>
+      <c r="S53" s="4">
+        <v>33.27777777777778</v>
+      </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="8" t="s">
@@ -13357,6 +14677,12 @@
       <c r="Q54" s="4">
         <v>46.0625</v>
       </c>
+      <c r="R54" s="4">
+        <v>44.41176470588236</v>
+      </c>
+      <c r="S54" s="4">
+        <v>43.88888888888889</v>
+      </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="9" t="s">
@@ -13410,6 +14736,12 @@
       <c r="Q55" s="4">
         <v>11.9375</v>
       </c>
+      <c r="R55" s="4">
+        <v>11.58823529411765</v>
+      </c>
+      <c r="S55" s="4">
+        <v>12.61111111111111</v>
+      </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="10" t="s">
@@ -13463,6 +14795,12 @@
       <c r="Q56" s="4">
         <v>33.625</v>
       </c>
+      <c r="R56" s="4">
+        <v>38.11764705882353</v>
+      </c>
+      <c r="S56" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="11" t="s">
@@ -13516,6 +14854,12 @@
       <c r="Q57" s="4">
         <v>49.1875</v>
       </c>
+      <c r="R57" s="4">
+        <v>49.41176470588236</v>
+      </c>
+      <c r="S57" s="4">
+        <v>48.38888888888889</v>
+      </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="12" t="s">
@@ -13569,6 +14913,12 @@
       <c r="Q58" s="4">
         <v>85.4375</v>
       </c>
+      <c r="R58" s="4">
+        <v>84.17647058823529</v>
+      </c>
+      <c r="S58" s="4">
+        <v>84.77777777777777</v>
+      </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="13" t="s">
@@ -13622,6 +14972,12 @@
       <c r="Q59" s="4">
         <v>5.6875</v>
       </c>
+      <c r="R59" s="4">
+        <v>4.764705882352941</v>
+      </c>
+      <c r="S59" s="4">
+        <v>6.111111111111111</v>
+      </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="1" t="s">
@@ -13746,6 +15102,12 @@
       <c r="Q62" s="4">
         <v>6.0875</v>
       </c>
+      <c r="R62" s="4">
+        <v>6.123529411764706</v>
+      </c>
+      <c r="S62" s="4">
+        <v>6.155555555555556</v>
+      </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="5" t="s">
@@ -13799,6 +15161,12 @@
       <c r="Q63" s="4">
         <v>6.1875</v>
       </c>
+      <c r="R63" s="4">
+        <v>6.21764705882353</v>
+      </c>
+      <c r="S63" s="4">
+        <v>6.272222222222222</v>
+      </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="6" t="s">
@@ -13852,6 +15220,12 @@
       <c r="Q64" s="4">
         <v>10.475</v>
       </c>
+      <c r="R64" s="4">
+        <v>10.57647058823529</v>
+      </c>
+      <c r="S64" s="4">
+        <v>10.69444444444444</v>
+      </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="7" t="s">
@@ -13905,6 +15279,12 @@
       <c r="Q65" s="4">
         <v>8.6875</v>
       </c>
+      <c r="R65" s="4">
+        <v>8.882352941176471</v>
+      </c>
+      <c r="S65" s="4">
+        <v>9.055555555555555</v>
+      </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="8" t="s">
@@ -13958,6 +15338,12 @@
       <c r="Q66" s="4">
         <v>22.75625</v>
       </c>
+      <c r="R66" s="4">
+        <v>22.84117647058824</v>
+      </c>
+      <c r="S66" s="4">
+        <v>22.92222222222222</v>
+      </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="9" t="s">
@@ -14011,6 +15397,12 @@
       <c r="Q67" s="4">
         <v>5.393750000000001</v>
       </c>
+      <c r="R67" s="4">
+        <v>5.482352941176472</v>
+      </c>
+      <c r="S67" s="4">
+        <v>5.58888888888889</v>
+      </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="10" t="s">
@@ -14064,6 +15456,12 @@
       <c r="Q68" s="4">
         <v>10.70625</v>
       </c>
+      <c r="R68" s="4">
+        <v>11.03529411764706</v>
+      </c>
+      <c r="S68" s="4">
+        <v>11.33333333333334</v>
+      </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="11" t="s">
@@ -14117,6 +15515,12 @@
       <c r="Q69" s="4">
         <v>25.31875</v>
       </c>
+      <c r="R69" s="4">
+        <v>25.35294117647058</v>
+      </c>
+      <c r="S69" s="4">
+        <v>25.38333333333333</v>
+      </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="12" t="s">
@@ -14170,6 +15574,12 @@
       <c r="Q70" s="4">
         <v>28.025</v>
       </c>
+      <c r="R70" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="S70" s="4">
+        <v>28.17222222222222</v>
+      </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="13" t="s">
@@ -14223,6 +15633,12 @@
       <c r="Q71" s="4">
         <v>5.40625</v>
       </c>
+      <c r="R71" s="4">
+        <v>5.488235294117647</v>
+      </c>
+      <c r="S71" s="4">
+        <v>5.588888888888889</v>
+      </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
@@ -14347,6 +15763,12 @@
       <c r="Q74" s="4">
         <v>-1.587301587301587</v>
       </c>
+      <c r="R74" s="4">
+        <v>6.290322580645161</v>
+      </c>
+      <c r="S74" s="4">
+        <v>2.238805970149254</v>
+      </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="5" t="s">
@@ -14400,6 +15822,12 @@
       <c r="Q75" s="4">
         <v>2.380952380952381</v>
       </c>
+      <c r="R75" s="4">
+        <v>-0.5882352941176471</v>
+      </c>
+      <c r="S75" s="4">
+        <v>5.074626865671641</v>
+      </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="6" t="s">
@@ -14453,6 +15881,12 @@
       <c r="Q76" s="4">
         <v>1.785714285714286</v>
       </c>
+      <c r="R76" s="4">
+        <v>1.965811965811966</v>
+      </c>
+      <c r="S76" s="4">
+        <v>2.213114754098361</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="7" t="s">
@@ -14506,6 +15940,12 @@
       <c r="Q77" s="4">
         <v>0.6086956521739131</v>
       </c>
+      <c r="R77" s="4">
+        <v>4.086956521739131</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="8" t="s">
@@ -14559,6 +15999,12 @@
       <c r="Q78" s="4">
         <v>2.73109243697479</v>
       </c>
+      <c r="R78" s="4">
+        <v>0.7468879668049793</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1.446280991735537</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="9" t="s">
@@ -14612,6 +16058,12 @@
       <c r="Q79" s="4">
         <v>2.34375</v>
       </c>
+      <c r="R79" s="4">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="S79" s="4">
+        <v>4.347826086956522</v>
+      </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="10" t="s">
@@ -14665,6 +16117,12 @@
       <c r="Q80" s="4">
         <v>4.615384615384615</v>
       </c>
+      <c r="R80" s="4">
+        <v>7.18954248366013</v>
+      </c>
+      <c r="S80" s="4">
+        <v>2.208588957055214</v>
+      </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="11" t="s">
@@ -14718,6 +16176,12 @@
       <c r="Q81" s="4">
         <v>1.712062256809339</v>
       </c>
+      <c r="R81" s="4">
+        <v>2.054263565891473</v>
+      </c>
+      <c r="S81" s="4">
+        <v>1.196911196911197</v>
+      </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="12" t="s">
@@ -14771,6 +16235,12 @@
       <c r="Q82" s="4">
         <v>1.580756013745704</v>
       </c>
+      <c r="R82" s="4">
+        <v>2.191780821917808</v>
+      </c>
+      <c r="S82" s="4">
+        <v>3.242320819112628</v>
+      </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="13" t="s">
@@ -14824,6 +16294,12 @@
       <c r="Q83" s="4">
         <v>-5</v>
       </c>
+      <c r="R83" s="4">
+        <v>-1.449275362318841</v>
+      </c>
+      <c r="S83" s="4">
+        <v>4.264705882352941</v>
+      </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="1" t="s">
@@ -14948,6 +16424,12 @@
       <c r="Q86" s="4">
         <v>1.74863387978142</v>
       </c>
+      <c r="R86" s="4">
+        <v>2.036847492323439</v>
+      </c>
+      <c r="S86" s="4">
+        <v>2.049808429118773</v>
+      </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="5" t="s">
@@ -15001,6 +16483,12 @@
       <c r="Q87" s="4">
         <v>1.543147208121827</v>
       </c>
+      <c r="R87" s="4">
+        <v>1.405508072174739</v>
+      </c>
+      <c r="S87" s="4">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="6" t="s">
@@ -15054,6 +16542,12 @@
       <c r="Q88" s="4">
         <v>1.778179626280892</v>
       </c>
+      <c r="R88" s="4">
+        <v>1.790540540540541</v>
+      </c>
+      <c r="S88" s="4">
+        <v>1.817702845100106</v>
+      </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="7" t="s">
@@ -15107,6 +16601,12 @@
       <c r="Q89" s="4">
         <v>4.110201042442293</v>
       </c>
+      <c r="R89" s="4">
+        <v>4.108367626886145</v>
+      </c>
+      <c r="S89" s="4">
+        <v>4.108367626886145</v>
+      </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="8" t="s">
@@ -15160,6 +16660,12 @@
       <c r="Q90" s="4">
         <v>2.035349351008009</v>
       </c>
+      <c r="R90" s="4">
+        <v>1.954945624029</v>
+      </c>
+      <c r="S90" s="4">
+        <v>1.92495126705653</v>
+      </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="9" t="s">
@@ -15213,6 +16719,12 @@
       <c r="Q91" s="4">
         <v>2.423857868020304</v>
       </c>
+      <c r="R91" s="4">
+        <v>2.298716452742123</v>
+      </c>
+      <c r="S91" s="4">
+        <v>2.451403887688984</v>
+      </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="10" t="s">
@@ -15266,6 +16778,12 @@
       <c r="Q92" s="4">
         <v>3.260606060606061</v>
       </c>
+      <c r="R92" s="4">
+        <v>3.594009983361065</v>
+      </c>
+      <c r="S92" s="4">
+        <v>3.479145473041709</v>
+      </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="11" t="s">
@@ -15319,6 +16837,12 @@
       <c r="Q93" s="4">
         <v>1.946092977250248</v>
       </c>
+      <c r="R93" s="4">
+        <v>1.95258019525802</v>
+      </c>
+      <c r="S93" s="4">
+        <v>1.9096689322517</v>
+      </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
@@ -15372,6 +16896,12 @@
       <c r="Q94" s="4">
         <v>3.061590145576708</v>
       </c>
+      <c r="R94" s="4">
+        <v>3.00819844439773</v>
+      </c>
+      <c r="S94" s="4">
+        <v>3.021782178217822</v>
+      </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="13" t="s">
@@ -15424,6 +16954,12 @@
       </c>
       <c r="Q95" s="4">
         <v>1.074380165289256</v>
+      </c>
+      <c r="R95" s="4">
+        <v>0.8842794759825326</v>
+      </c>
+      <c r="S95" s="4">
+        <v>1.117886178861789</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2023/Lineup/Results.xlsx
+++ b/Data/2023/Lineup/Results.xlsx
@@ -838,6 +838,18 @@
       <c r="S2" s="4">
         <v>10</v>
       </c>
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4">
+        <v>-19</v>
+      </c>
+      <c r="V2" s="4">
+        <v>-5</v>
+      </c>
+      <c r="W2" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3" t="s">
@@ -897,6 +909,18 @@
       <c r="S3" s="4">
         <v>2</v>
       </c>
+      <c r="T3" s="4">
+        <v>2</v>
+      </c>
+      <c r="U3" s="4">
+        <v>-11</v>
+      </c>
+      <c r="V3" s="4">
+        <v>12</v>
+      </c>
+      <c r="W3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
@@ -956,6 +980,18 @@
       <c r="S4" s="4">
         <v>30</v>
       </c>
+      <c r="T4" s="4">
+        <v>20</v>
+      </c>
+      <c r="U4" s="4">
+        <v>22</v>
+      </c>
+      <c r="V4" s="4">
+        <v>14</v>
+      </c>
+      <c r="W4" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
@@ -1015,6 +1051,18 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
@@ -1074,6 +1122,18 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
+      <c r="T6" s="4">
+        <v>12</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4">
+        <v>6</v>
+      </c>
+      <c r="W6" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
@@ -1133,6 +1193,18 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
@@ -1192,6 +1264,18 @@
       <c r="S8" s="4">
         <v>-10</v>
       </c>
+      <c r="T8" s="4">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4">
+        <v>17</v>
+      </c>
+      <c r="V8" s="4">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
@@ -1251,6 +1335,18 @@
       <c r="S9" s="4">
         <v>22</v>
       </c>
+      <c r="T9" s="4">
+        <v>10</v>
+      </c>
+      <c r="U9" s="4">
+        <v>24</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
@@ -1310,6 +1406,18 @@
       <c r="S10" s="4">
         <v>10</v>
       </c>
+      <c r="T10" s="4">
+        <v>8</v>
+      </c>
+      <c r="U10" s="4">
+        <v>28</v>
+      </c>
+      <c r="V10" s="4">
+        <v>39</v>
+      </c>
+      <c r="W10" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7" t="s">
@@ -1369,6 +1477,18 @@
       <c r="S11" s="4">
         <v>-9</v>
       </c>
+      <c r="T11" s="4">
+        <v>-16</v>
+      </c>
+      <c r="U11" s="4">
+        <v>39</v>
+      </c>
+      <c r="V11" s="4">
+        <v>12</v>
+      </c>
+      <c r="W11" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="8" t="s">
@@ -1428,6 +1548,18 @@
       <c r="S12" s="4">
         <v>-10</v>
       </c>
+      <c r="T12" s="4">
+        <v>24</v>
+      </c>
+      <c r="U12" s="4">
+        <v>-3</v>
+      </c>
+      <c r="V12" s="4">
+        <v>41</v>
+      </c>
+      <c r="W12" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="8" t="s">
@@ -1487,6 +1619,18 @@
       <c r="S13" s="4">
         <v>32</v>
       </c>
+      <c r="T13" s="4">
+        <v>19</v>
+      </c>
+      <c r="U13" s="4">
+        <v>21</v>
+      </c>
+      <c r="V13" s="4">
+        <v>34</v>
+      </c>
+      <c r="W13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
@@ -1546,6 +1690,18 @@
       <c r="S14" s="4">
         <v>12</v>
       </c>
+      <c r="T14" s="4">
+        <v>-16</v>
+      </c>
+      <c r="U14" s="4">
+        <v>-21</v>
+      </c>
+      <c r="V14" s="4">
+        <v>5</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
@@ -1605,6 +1761,18 @@
       <c r="S15" s="4">
         <v>17</v>
       </c>
+      <c r="T15" s="4">
+        <v>8</v>
+      </c>
+      <c r="U15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>-3</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="10" t="s">
@@ -1664,6 +1832,18 @@
       <c r="S16" s="4">
         <v>46</v>
       </c>
+      <c r="T16" s="4">
+        <v>48</v>
+      </c>
+      <c r="U16" s="4">
+        <v>57</v>
+      </c>
+      <c r="V16" s="4">
+        <v>-14</v>
+      </c>
+      <c r="W16" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="10" t="s">
@@ -1723,6 +1903,18 @@
       <c r="S17" s="4">
         <v>-20</v>
       </c>
+      <c r="T17" s="4">
+        <v>14</v>
+      </c>
+      <c r="U17" s="4">
+        <v>3</v>
+      </c>
+      <c r="V17" s="4">
+        <v>39</v>
+      </c>
+      <c r="W17" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="11" t="s">
@@ -1782,6 +1974,18 @@
       <c r="S18" s="4">
         <v>-4</v>
       </c>
+      <c r="T18" s="4">
+        <v>41</v>
+      </c>
+      <c r="U18" s="4">
+        <v>13</v>
+      </c>
+      <c r="V18" s="4">
+        <v>26</v>
+      </c>
+      <c r="W18" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="11" t="s">
@@ -1841,6 +2045,18 @@
       <c r="S19" s="4">
         <v>25</v>
       </c>
+      <c r="T19" s="4">
+        <v>18</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>14</v>
+      </c>
+      <c r="W19" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
@@ -1900,6 +2116,18 @@
       <c r="S20" s="4">
         <v>53</v>
       </c>
+      <c r="T20" s="4">
+        <v>42</v>
+      </c>
+      <c r="U20" s="4">
+        <v>45</v>
+      </c>
+      <c r="V20" s="4">
+        <v>44</v>
+      </c>
+      <c r="W20" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
@@ -1959,6 +2187,18 @@
       <c r="S21" s="4">
         <v>32</v>
       </c>
+      <c r="T21" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U21" s="4">
+        <v>37</v>
+      </c>
+      <c r="V21" s="4">
+        <v>35</v>
+      </c>
+      <c r="W21" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="13" t="s">
@@ -2018,6 +2258,18 @@
       <c r="S22" s="4">
         <v>14</v>
       </c>
+      <c r="T22" s="4">
+        <v>13</v>
+      </c>
+      <c r="U22" s="4">
+        <v>-11</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="13" t="s">
@@ -2077,6 +2329,18 @@
       <c r="S23" s="4">
         <v>16</v>
       </c>
+      <c r="T23" s="4">
+        <v>6</v>
+      </c>
+      <c r="U23" s="4">
+        <v>12</v>
+      </c>
+      <c r="V23" s="4">
+        <v>-3</v>
+      </c>
+      <c r="W23" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
@@ -2207,6 +2471,18 @@
       <c r="S26" s="4">
         <v>9.699999999999999</v>
       </c>
+      <c r="T26" s="4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="V26" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="W26" s="4">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="3" t="s">
@@ -2266,6 +2542,18 @@
       <c r="S27" s="4">
         <v>7.2</v>
       </c>
+      <c r="T27" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="U27" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="V27" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="W27" s="4">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
@@ -2325,6 +2613,18 @@
       <c r="S28" s="4">
         <v>6.9</v>
       </c>
+      <c r="T28" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="U28" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="V28" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="W28" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="5" t="s">
@@ -2384,6 +2684,18 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
@@ -2443,6 +2755,18 @@
       <c r="S30" s="4">
         <v>4.5</v>
       </c>
+      <c r="T30" s="4">
+        <v>5</v>
+      </c>
+      <c r="U30" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="V30" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="W30" s="4">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
@@ -2502,6 +2826,18 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="6" t="s">
@@ -2561,8 +2897,20 @@
       <c r="S32" s="4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="4">
+        <v>12</v>
+      </c>
+      <c r="U32" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="V32" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="W32" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -2620,8 +2968,20 @@
       <c r="S33" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="U33" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="V33" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="W33" s="4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2679,8 +3039,20 @@
       <c r="S34" s="4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="4">
+        <v>12</v>
+      </c>
+      <c r="U34" s="4">
+        <v>13</v>
+      </c>
+      <c r="V34" s="4">
+        <v>14</v>
+      </c>
+      <c r="W34" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -2738,8 +3110,20 @@
       <c r="S35" s="4">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="U35" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="V35" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="W35" s="4">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -2797,8 +3181,20 @@
       <c r="S36" s="4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="U36" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="V36" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="W36" s="4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -2856,8 +3252,20 @@
       <c r="S37" s="4">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="U37" s="4">
+        <v>20.1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>20.4</v>
+      </c>
+      <c r="W37" s="4">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
         <v>35</v>
       </c>
@@ -2915,8 +3323,20 @@
       <c r="S38" s="4">
         <v>9.800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U38" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="V38" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="W38" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
@@ -2974,8 +3394,20 @@
       <c r="S39" s="4">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="U39" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="V39" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="W39" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
@@ -3033,8 +3465,20 @@
       <c r="S40" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="4">
+        <v>19</v>
+      </c>
+      <c r="U40" s="4">
+        <v>20</v>
+      </c>
+      <c r="V40" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="W40" s="4">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="10" t="s">
         <v>38</v>
       </c>
@@ -3092,8 +3536,20 @@
       <c r="S41" s="4">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="U41" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="V41" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="W41" s="4">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
@@ -3151,8 +3607,20 @@
       <c r="S42" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="U42" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="V42" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="W42" s="4">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
@@ -3210,8 +3678,20 @@
       <c r="S43" s="4">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="U43" s="4">
+        <v>20.1</v>
+      </c>
+      <c r="V43" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="W43" s="4">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="12" t="s">
         <v>41</v>
       </c>
@@ -3269,8 +3749,20 @@
       <c r="S44" s="4">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="U44" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="V44" s="4">
+        <v>30</v>
+      </c>
+      <c r="W44" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="12" t="s">
         <v>42</v>
       </c>
@@ -3328,8 +3820,20 @@
       <c r="S45" s="4">
         <v>20.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="U45" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="V45" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="W45" s="4">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="13" t="s">
         <v>43</v>
       </c>
@@ -3387,8 +3891,20 @@
       <c r="S46" s="4">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="U46" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="V46" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="W46" s="4">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="13" t="s">
         <v>44</v>
       </c>
@@ -3445,6 +3961,18 @@
       </c>
       <c r="S47" s="4">
         <v>5.3</v>
+      </c>
+      <c r="T47" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="U47" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="V47" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="W47" s="4">
+        <v>5.8</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3576,6 +4104,18 @@
       <c r="S50" s="4">
         <v>61</v>
       </c>
+      <c r="T50" s="4">
+        <v>63</v>
+      </c>
+      <c r="U50" s="4">
+        <v>44</v>
+      </c>
+      <c r="V50" s="4">
+        <v>39</v>
+      </c>
+      <c r="W50" s="4">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="3" t="s">
@@ -3635,6 +4175,18 @@
       <c r="S51" s="4">
         <v>122</v>
       </c>
+      <c r="T51" s="4">
+        <v>124</v>
+      </c>
+      <c r="U51" s="4">
+        <v>113</v>
+      </c>
+      <c r="V51" s="4">
+        <v>125</v>
+      </c>
+      <c r="W51" s="4">
+        <v>135</v>
+      </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="5" t="s">
@@ -3694,6 +4246,18 @@
       <c r="S52" s="4">
         <v>83</v>
       </c>
+      <c r="T52" s="4">
+        <v>103</v>
+      </c>
+      <c r="U52" s="4">
+        <v>125</v>
+      </c>
+      <c r="V52" s="4">
+        <v>139</v>
+      </c>
+      <c r="W52" s="4">
+        <v>160</v>
+      </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="5" t="s">
@@ -3753,6 +4317,18 @@
       <c r="S53" s="4">
         <v>20</v>
       </c>
+      <c r="T53" s="4">
+        <v>20</v>
+      </c>
+      <c r="U53" s="4">
+        <v>20</v>
+      </c>
+      <c r="V53" s="4">
+        <v>20</v>
+      </c>
+      <c r="W53" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="6" t="s">
@@ -3812,6 +4388,18 @@
       <c r="S54" s="4">
         <v>51</v>
       </c>
+      <c r="T54" s="4">
+        <v>61</v>
+      </c>
+      <c r="U54" s="4">
+        <v>78</v>
+      </c>
+      <c r="V54" s="4">
+        <v>118</v>
+      </c>
+      <c r="W54" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="6" t="s">
@@ -3871,6 +4459,18 @@
       <c r="S55" s="4">
         <v>191</v>
       </c>
+      <c r="T55" s="4">
+        <v>201</v>
+      </c>
+      <c r="U55" s="4">
+        <v>225</v>
+      </c>
+      <c r="V55" s="4">
+        <v>226</v>
+      </c>
+      <c r="W55" s="4">
+        <v>230</v>
+      </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="7" t="s">
@@ -3930,6 +4530,18 @@
       <c r="S56" s="4">
         <v>145</v>
       </c>
+      <c r="T56" s="4">
+        <v>153</v>
+      </c>
+      <c r="U56" s="4">
+        <v>181</v>
+      </c>
+      <c r="V56" s="4">
+        <v>220</v>
+      </c>
+      <c r="W56" s="4">
+        <v>231</v>
+      </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="7" t="s">
@@ -3989,6 +4601,18 @@
       <c r="S57" s="4">
         <v>352</v>
       </c>
+      <c r="T57" s="4">
+        <v>336</v>
+      </c>
+      <c r="U57" s="4">
+        <v>375</v>
+      </c>
+      <c r="V57" s="4">
+        <v>387</v>
+      </c>
+      <c r="W57" s="4">
+        <v>403</v>
+      </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="8" t="s">
@@ -4048,6 +4672,18 @@
       <c r="S58" s="4">
         <v>244</v>
       </c>
+      <c r="T58" s="4">
+        <v>268</v>
+      </c>
+      <c r="U58" s="4">
+        <v>265</v>
+      </c>
+      <c r="V58" s="4">
+        <v>306</v>
+      </c>
+      <c r="W58" s="4">
+        <v>335</v>
+      </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="8" t="s">
@@ -4107,6 +4743,18 @@
       <c r="S59" s="4">
         <v>316</v>
       </c>
+      <c r="T59" s="4">
+        <v>335</v>
+      </c>
+      <c r="U59" s="4">
+        <v>356</v>
+      </c>
+      <c r="V59" s="4">
+        <v>390</v>
+      </c>
+      <c r="W59" s="4">
+        <v>394</v>
+      </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="9" t="s">
@@ -4166,6 +4814,18 @@
       <c r="S60" s="4">
         <v>121</v>
       </c>
+      <c r="T60" s="4">
+        <v>105</v>
+      </c>
+      <c r="U60" s="4">
+        <v>84</v>
+      </c>
+      <c r="V60" s="4">
+        <v>89</v>
+      </c>
+      <c r="W60" s="4">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="9" t="s">
@@ -4225,6 +4885,18 @@
       <c r="S61" s="4">
         <v>53</v>
       </c>
+      <c r="T61" s="4">
+        <v>61</v>
+      </c>
+      <c r="U61" s="4">
+        <v>60</v>
+      </c>
+      <c r="V61" s="4">
+        <v>62</v>
+      </c>
+      <c r="W61" s="4">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="10" t="s">
@@ -4284,6 +4956,18 @@
       <c r="S62" s="4">
         <v>325</v>
       </c>
+      <c r="T62" s="4">
+        <v>373</v>
+      </c>
+      <c r="U62" s="4">
+        <v>430</v>
+      </c>
+      <c r="V62" s="4">
+        <v>416</v>
+      </c>
+      <c r="W62" s="4">
+        <v>438</v>
+      </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="10" t="s">
@@ -4343,6 +5027,18 @@
       <c r="S63" s="4">
         <v>204</v>
       </c>
+      <c r="T63" s="4">
+        <v>218</v>
+      </c>
+      <c r="U63" s="4">
+        <v>221</v>
+      </c>
+      <c r="V63" s="4">
+        <v>260</v>
+      </c>
+      <c r="W63" s="4">
+        <v>279</v>
+      </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="11" t="s">
@@ -4402,6 +5098,18 @@
       <c r="S64" s="4">
         <v>412</v>
       </c>
+      <c r="T64" s="4">
+        <v>453</v>
+      </c>
+      <c r="U64" s="4">
+        <v>466</v>
+      </c>
+      <c r="V64" s="4">
+        <v>492</v>
+      </c>
+      <c r="W64" s="4">
+        <v>506</v>
+      </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="11" t="s">
@@ -4461,6 +5169,18 @@
       <c r="S65" s="4">
         <v>319</v>
       </c>
+      <c r="T65" s="4">
+        <v>337</v>
+      </c>
+      <c r="U65" s="4">
+        <v>338</v>
+      </c>
+      <c r="V65" s="4">
+        <v>352</v>
+      </c>
+      <c r="W65" s="4">
+        <v>384</v>
+      </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="12" t="s">
@@ -4520,6 +5240,18 @@
       <c r="S66" s="4">
         <v>836</v>
       </c>
+      <c r="T66" s="4">
+        <v>878</v>
+      </c>
+      <c r="U66" s="4">
+        <v>923</v>
+      </c>
+      <c r="V66" s="4">
+        <v>967</v>
+      </c>
+      <c r="W66" s="4">
+        <v>1014</v>
+      </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="12" t="s">
@@ -4579,6 +5311,18 @@
       <c r="S67" s="4">
         <v>487</v>
       </c>
+      <c r="T67" s="4">
+        <v>477</v>
+      </c>
+      <c r="U67" s="4">
+        <v>514</v>
+      </c>
+      <c r="V67" s="4">
+        <v>549</v>
+      </c>
+      <c r="W67" s="4">
+        <v>579</v>
+      </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="13" t="s">
@@ -4638,6 +5382,18 @@
       <c r="S68" s="4">
         <v>118</v>
       </c>
+      <c r="T68" s="4">
+        <v>131</v>
+      </c>
+      <c r="U68" s="4">
+        <v>120</v>
+      </c>
+      <c r="V68" s="4">
+        <v>120</v>
+      </c>
+      <c r="W68" s="4">
+        <v>126</v>
+      </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="13" t="s">
@@ -4697,6 +5453,18 @@
       <c r="S69" s="4">
         <v>-37</v>
       </c>
+      <c r="T69" s="4">
+        <v>-31</v>
+      </c>
+      <c r="U69" s="4">
+        <v>-19</v>
+      </c>
+      <c r="V69" s="4">
+        <v>-22</v>
+      </c>
+      <c r="W69" s="4">
+        <v>-17</v>
+      </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="5" t="s">
@@ -4756,6 +5524,18 @@
       <c r="S70" s="4">
         <v>10</v>
       </c>
+      <c r="T70" s="4">
+        <v>22</v>
+      </c>
+      <c r="U70" s="4">
+        <v>32</v>
+      </c>
+      <c r="V70" s="4">
+        <v>38</v>
+      </c>
+      <c r="W70" s="4">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="5" t="s">
@@ -4815,6 +5595,18 @@
       <c r="S71" s="4">
         <v>21</v>
       </c>
+      <c r="T71" s="4">
+        <v>21</v>
+      </c>
+      <c r="U71" s="4">
+        <v>21</v>
+      </c>
+      <c r="V71" s="4">
+        <v>21</v>
+      </c>
+      <c r="W71" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
@@ -4945,6 +5737,18 @@
       <c r="S74" s="4">
         <v>146.4</v>
       </c>
+      <c r="T74" s="4">
+        <v>156.1</v>
+      </c>
+      <c r="U74" s="4">
+        <v>165.7</v>
+      </c>
+      <c r="V74" s="4">
+        <v>175.3</v>
+      </c>
+      <c r="W74" s="4">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="3" t="s">
@@ -5004,6 +5808,18 @@
       <c r="S75" s="4">
         <v>97.80000000000003</v>
       </c>
+      <c r="T75" s="4">
+        <v>105</v>
+      </c>
+      <c r="U75" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="V75" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="W75" s="4">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="5" t="s">
@@ -5063,6 +5879,18 @@
       <c r="S76" s="4">
         <v>93.20000000000003</v>
       </c>
+      <c r="T76" s="4">
+        <v>101.1</v>
+      </c>
+      <c r="U76" s="4">
+        <v>110</v>
+      </c>
+      <c r="V76" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="W76" s="4">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="5" t="s">
@@ -5122,6 +5950,18 @@
       <c r="S77" s="4">
         <v>47</v>
       </c>
+      <c r="T77" s="4">
+        <v>47</v>
+      </c>
+      <c r="U77" s="4">
+        <v>47</v>
+      </c>
+      <c r="V77" s="4">
+        <v>47</v>
+      </c>
+      <c r="W77" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="6" t="s">
@@ -5181,6 +6021,18 @@
       <c r="S78" s="4">
         <v>182.8</v>
       </c>
+      <c r="T78" s="4">
+        <v>194.8</v>
+      </c>
+      <c r="U78" s="4">
+        <v>207.3</v>
+      </c>
+      <c r="V78" s="4">
+        <v>220.8</v>
+      </c>
+      <c r="W78" s="4">
+        <v>234.3</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="6" t="s">
@@ -5240,6 +6092,18 @@
       <c r="S79" s="4">
         <v>167.7</v>
       </c>
+      <c r="T79" s="4">
+        <v>181.2</v>
+      </c>
+      <c r="U79" s="4">
+        <v>195.7</v>
+      </c>
+      <c r="V79" s="4">
+        <v>210.2</v>
+      </c>
+      <c r="W79" s="4">
+        <v>224.7</v>
+      </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="7" t="s">
@@ -5299,8 +6163,20 @@
       <c r="S80" s="4">
         <v>161.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80" s="4">
+        <v>173.6</v>
+      </c>
+      <c r="U80" s="4">
+        <v>186.6</v>
+      </c>
+      <c r="V80" s="4">
+        <v>200.6</v>
+      </c>
+      <c r="W80" s="4">
+        <v>214.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="7" t="s">
         <v>32</v>
       </c>
@@ -5358,8 +6234,20 @@
       <c r="S81" s="4">
         <v>204.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81" s="4">
+        <v>219.6</v>
+      </c>
+      <c r="U81" s="4">
+        <v>235.3</v>
+      </c>
+      <c r="V81" s="4">
+        <v>251.1</v>
+      </c>
+      <c r="W81" s="4">
+        <v>266.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="8" t="s">
         <v>33</v>
       </c>
@@ -5417,8 +6305,20 @@
       <c r="S82" s="4">
         <v>394.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" s="4">
+        <v>417.7</v>
+      </c>
+      <c r="U82" s="4">
+        <v>440.9</v>
+      </c>
+      <c r="V82" s="4">
+        <v>464.4</v>
+      </c>
+      <c r="W82" s="4">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="8" t="s">
         <v>34</v>
       </c>
@@ -5476,8 +6376,20 @@
       <c r="S83" s="4">
         <v>314.9999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="U83" s="4">
+        <v>354.9</v>
+      </c>
+      <c r="V83" s="4">
+        <v>375.3</v>
+      </c>
+      <c r="W83" s="4">
+        <v>395.6999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="9" t="s">
         <v>35</v>
       </c>
@@ -5535,8 +6447,20 @@
       <c r="S84" s="4">
         <v>131.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84" s="4">
+        <v>141.1</v>
+      </c>
+      <c r="U84" s="4">
+        <v>150.7</v>
+      </c>
+      <c r="V84" s="4">
+        <v>160.3</v>
+      </c>
+      <c r="W84" s="4">
+        <v>169.8999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="9" t="s">
         <v>36</v>
       </c>
@@ -5594,8 +6518,20 @@
       <c r="S85" s="4">
         <v>78.09999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85" s="4">
+        <v>84.29999999999998</v>
+      </c>
+      <c r="U85" s="4">
+        <v>90.49999999999999</v>
+      </c>
+      <c r="V85" s="4">
+        <v>96.69999999999999</v>
+      </c>
+      <c r="W85" s="4">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="10" t="s">
         <v>37</v>
       </c>
@@ -5653,8 +6589,20 @@
       <c r="S86" s="4">
         <v>238.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86" s="4">
+        <v>257.6</v>
+      </c>
+      <c r="U86" s="4">
+        <v>277.6</v>
+      </c>
+      <c r="V86" s="4">
+        <v>297.4</v>
+      </c>
+      <c r="W86" s="4">
+        <v>317.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="10" t="s">
         <v>38</v>
       </c>
@@ -5712,8 +6660,20 @@
       <c r="S87" s="4">
         <v>157.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87" s="4">
+        <v>171.9</v>
+      </c>
+      <c r="U87" s="4">
+        <v>186.3</v>
+      </c>
+      <c r="V87" s="4">
+        <v>201.7</v>
+      </c>
+      <c r="W87" s="4">
+        <v>217.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="11" t="s">
         <v>39</v>
       </c>
@@ -5771,8 +6731,20 @@
       <c r="S88" s="4">
         <v>442.1000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88" s="4">
+        <v>467.3000000000001</v>
+      </c>
+      <c r="U88" s="4">
+        <v>492.5000000000001</v>
+      </c>
+      <c r="V88" s="4">
+        <v>517.8000000000001</v>
+      </c>
+      <c r="W88" s="4">
+        <v>543.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="11" t="s">
         <v>40</v>
       </c>
@@ -5830,8 +6802,20 @@
       <c r="S89" s="4">
         <v>341.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89" s="4">
+        <v>362.2</v>
+      </c>
+      <c r="U89" s="4">
+        <v>382.3</v>
+      </c>
+      <c r="V89" s="4">
+        <v>402.5</v>
+      </c>
+      <c r="W89" s="4">
+        <v>422.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="12" t="s">
         <v>41</v>
       </c>
@@ -5889,8 +6873,20 @@
       <c r="S90" s="4">
         <v>505.9000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90" s="4">
+        <v>535.6000000000001</v>
+      </c>
+      <c r="U90" s="4">
+        <v>565.5000000000001</v>
+      </c>
+      <c r="V90" s="4">
+        <v>595.5000000000001</v>
+      </c>
+      <c r="W90" s="4">
+        <v>625.5000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="12" t="s">
         <v>42</v>
       </c>
@@ -5948,8 +6944,20 @@
       <c r="S91" s="4">
         <v>348.3000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91" s="4">
+        <v>368.5000000000001</v>
+      </c>
+      <c r="U91" s="4">
+        <v>389.0000000000001</v>
+      </c>
+      <c r="V91" s="4">
+        <v>409.8000000000001</v>
+      </c>
+      <c r="W91" s="4">
+        <v>430.6000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="13" t="s">
         <v>43</v>
       </c>
@@ -6007,8 +7015,20 @@
       <c r="S92" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92" s="4">
+        <v>139.3</v>
+      </c>
+      <c r="U92" s="4">
+        <v>150.6</v>
+      </c>
+      <c r="V92" s="4">
+        <v>161.9</v>
+      </c>
+      <c r="W92" s="4">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="13" t="s">
         <v>44</v>
       </c>
@@ -6066,8 +7086,20 @@
       <c r="S93" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="U93" s="4">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="V93" s="4">
+        <v>92.89999999999999</v>
+      </c>
+      <c r="W93" s="4">
+        <v>98.69999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="5" t="s">
         <v>27</v>
       </c>
@@ -6125,8 +7157,20 @@
       <c r="S94" s="4">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="U94" s="4">
+        <v>33</v>
+      </c>
+      <c r="V94" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="W94" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="5" t="s">
         <v>28</v>
       </c>
@@ -6182,6 +7226,18 @@
         <v>26</v>
       </c>
       <c r="S95" s="4">
+        <v>26</v>
+      </c>
+      <c r="T95" s="4">
+        <v>26</v>
+      </c>
+      <c r="U95" s="4">
+        <v>26</v>
+      </c>
+      <c r="V95" s="4">
+        <v>26</v>
+      </c>
+      <c r="W95" s="4">
         <v>26</v>
       </c>
     </row>
@@ -6314,6 +7370,18 @@
       <c r="S98" s="4">
         <v>3.388888888888889</v>
       </c>
+      <c r="T98" s="4">
+        <v>3.315789473684211</v>
+      </c>
+      <c r="U98" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="V98" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="W98" s="4">
+        <v>1.954545454545455</v>
+      </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="3" t="s">
@@ -6373,6 +7441,18 @@
       <c r="S99" s="4">
         <v>6.777777777777778</v>
       </c>
+      <c r="T99" s="4">
+        <v>6.526315789473684</v>
+      </c>
+      <c r="U99" s="4">
+        <v>5.65</v>
+      </c>
+      <c r="V99" s="4">
+        <v>5.952380952380953</v>
+      </c>
+      <c r="W99" s="4">
+        <v>6.136363636363637</v>
+      </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="5" t="s">
@@ -6432,6 +7512,18 @@
       <c r="S100" s="4">
         <v>4.611111111111111</v>
       </c>
+      <c r="T100" s="4">
+        <v>5.421052631578948</v>
+      </c>
+      <c r="U100" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="V100" s="4">
+        <v>6.619047619047619</v>
+      </c>
+      <c r="W100" s="4">
+        <v>7.272727272727272</v>
+      </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="5" t="s">
@@ -6491,6 +7583,18 @@
       <c r="S101" s="4">
         <v>1.111111111111111</v>
       </c>
+      <c r="T101" s="4">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="U101" s="4">
+        <v>1</v>
+      </c>
+      <c r="V101" s="4">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="W101" s="4">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="6" t="s">
@@ -6550,6 +7654,18 @@
       <c r="S102" s="4">
         <v>2.833333333333333</v>
       </c>
+      <c r="T102" s="4">
+        <v>3.210526315789474</v>
+      </c>
+      <c r="U102" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="V102" s="4">
+        <v>5.619047619047619</v>
+      </c>
+      <c r="W102" s="4">
+        <v>5.454545454545454</v>
+      </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="6" t="s">
@@ -6609,6 +7725,18 @@
       <c r="S103" s="4">
         <v>10.61111111111111</v>
       </c>
+      <c r="T103" s="4">
+        <v>10.57894736842105</v>
+      </c>
+      <c r="U103" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="V103" s="4">
+        <v>10.76190476190476</v>
+      </c>
+      <c r="W103" s="4">
+        <v>10.45454545454546</v>
+      </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="7" t="s">
@@ -6668,6 +7796,18 @@
       <c r="S104" s="4">
         <v>8.055555555555555</v>
       </c>
+      <c r="T104" s="4">
+        <v>8.052631578947368</v>
+      </c>
+      <c r="U104" s="4">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="V104" s="4">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="W104" s="4">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" s="7" t="s">
@@ -6727,6 +7867,18 @@
       <c r="S105" s="4">
         <v>19.55555555555556</v>
       </c>
+      <c r="T105" s="4">
+        <v>17.68421052631579</v>
+      </c>
+      <c r="U105" s="4">
+        <v>18.75</v>
+      </c>
+      <c r="V105" s="4">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="W105" s="4">
+        <v>18.31818181818182</v>
+      </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="8" t="s">
@@ -6786,6 +7938,18 @@
       <c r="S106" s="4">
         <v>13.55555555555556</v>
       </c>
+      <c r="T106" s="4">
+        <v>14.10526315789474</v>
+      </c>
+      <c r="U106" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="V106" s="4">
+        <v>14.57142857142857</v>
+      </c>
+      <c r="W106" s="4">
+        <v>15.22727272727273</v>
+      </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" s="8" t="s">
@@ -6845,6 +8009,18 @@
       <c r="S107" s="4">
         <v>17.55555555555556</v>
       </c>
+      <c r="T107" s="4">
+        <v>17.63157894736842</v>
+      </c>
+      <c r="U107" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="V107" s="4">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="W107" s="4">
+        <v>17.90909090909091</v>
+      </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="9" t="s">
@@ -6904,6 +8080,18 @@
       <c r="S108" s="4">
         <v>6.722222222222222</v>
       </c>
+      <c r="T108" s="4">
+        <v>5.526315789473684</v>
+      </c>
+      <c r="U108" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="V108" s="4">
+        <v>4.238095238095238</v>
+      </c>
+      <c r="W108" s="4">
+        <v>4.045454545454546</v>
+      </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="9" t="s">
@@ -6963,6 +8151,18 @@
       <c r="S109" s="4">
         <v>2.944444444444445</v>
       </c>
+      <c r="T109" s="4">
+        <v>3.210526315789474</v>
+      </c>
+      <c r="U109" s="4">
+        <v>3</v>
+      </c>
+      <c r="V109" s="4">
+        <v>2.952380952380953</v>
+      </c>
+      <c r="W109" s="4">
+        <v>2.681818181818182</v>
+      </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" s="10" t="s">
@@ -7022,6 +8222,18 @@
       <c r="S110" s="4">
         <v>18.05555555555556</v>
       </c>
+      <c r="T110" s="4">
+        <v>19.63157894736842</v>
+      </c>
+      <c r="U110" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="V110" s="4">
+        <v>19.80952380952381</v>
+      </c>
+      <c r="W110" s="4">
+        <v>19.90909090909091</v>
+      </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="10" t="s">
@@ -7081,6 +8293,18 @@
       <c r="S111" s="4">
         <v>11.33333333333333</v>
       </c>
+      <c r="T111" s="4">
+        <v>11.47368421052632</v>
+      </c>
+      <c r="U111" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="V111" s="4">
+        <v>12.38095238095238</v>
+      </c>
+      <c r="W111" s="4">
+        <v>12.68181818181818</v>
+      </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="11" t="s">
@@ -7140,6 +8364,18 @@
       <c r="S112" s="4">
         <v>22.88888888888889</v>
       </c>
+      <c r="T112" s="4">
+        <v>23.84210526315789</v>
+      </c>
+      <c r="U112" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="V112" s="4">
+        <v>23.42857142857143</v>
+      </c>
+      <c r="W112" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="113" spans="1:23">
       <c r="A113" s="11" t="s">
@@ -7199,6 +8435,18 @@
       <c r="S113" s="4">
         <v>17.72222222222222</v>
       </c>
+      <c r="T113" s="4">
+        <v>17.73684210526316</v>
+      </c>
+      <c r="U113" s="4">
+        <v>16.9</v>
+      </c>
+      <c r="V113" s="4">
+        <v>16.76190476190476</v>
+      </c>
+      <c r="W113" s="4">
+        <v>17.45454545454545</v>
+      </c>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" s="12" t="s">
@@ -7258,6 +8506,18 @@
       <c r="S114" s="4">
         <v>46.44444444444444</v>
       </c>
+      <c r="T114" s="4">
+        <v>46.21052631578947</v>
+      </c>
+      <c r="U114" s="4">
+        <v>46.15</v>
+      </c>
+      <c r="V114" s="4">
+        <v>46.04761904761905</v>
+      </c>
+      <c r="W114" s="4">
+        <v>46.09090909090909</v>
+      </c>
     </row>
     <row r="115" spans="1:23">
       <c r="A115" s="12" t="s">
@@ -7317,6 +8577,18 @@
       <c r="S115" s="4">
         <v>27.05555555555556</v>
       </c>
+      <c r="T115" s="4">
+        <v>25.10526315789474</v>
+      </c>
+      <c r="U115" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="V115" s="4">
+        <v>26.14285714285714</v>
+      </c>
+      <c r="W115" s="4">
+        <v>26.31818181818182</v>
+      </c>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="13" t="s">
@@ -7376,6 +8648,18 @@
       <c r="S116" s="4">
         <v>6.555555555555555</v>
       </c>
+      <c r="T116" s="4">
+        <v>6.894736842105263</v>
+      </c>
+      <c r="U116" s="4">
+        <v>6</v>
+      </c>
+      <c r="V116" s="4">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="W116" s="4">
+        <v>5.727272727272728</v>
+      </c>
     </row>
     <row r="117" spans="1:23">
       <c r="A117" s="13" t="s">
@@ -7435,6 +8719,18 @@
       <c r="S117" s="4">
         <v>-2.055555555555555</v>
       </c>
+      <c r="T117" s="4">
+        <v>-1.631578947368421</v>
+      </c>
+      <c r="U117" s="4">
+        <v>-0.95</v>
+      </c>
+      <c r="V117" s="4">
+        <v>-1.047619047619048</v>
+      </c>
+      <c r="W117" s="4">
+        <v>-0.7727272727272727</v>
+      </c>
     </row>
     <row r="118" spans="1:23">
       <c r="A118" s="5" t="s">
@@ -7494,6 +8790,18 @@
       <c r="S118" s="4">
         <v>0.5555555555555556</v>
       </c>
+      <c r="T118" s="4">
+        <v>1.157894736842105</v>
+      </c>
+      <c r="U118" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="V118" s="4">
+        <v>1.80952380952381</v>
+      </c>
+      <c r="W118" s="4">
+        <v>2.227272727272727</v>
+      </c>
     </row>
     <row r="119" spans="1:23">
       <c r="A119" s="5" t="s">
@@ -7553,6 +8861,18 @@
       <c r="S119" s="4">
         <v>1.166666666666667</v>
       </c>
+      <c r="T119" s="4">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="U119" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="V119" s="4">
+        <v>1</v>
+      </c>
+      <c r="W119" s="4">
+        <v>0.9545454545454546</v>
+      </c>
     </row>
     <row r="121" spans="1:23">
       <c r="A121" s="1" t="s">
@@ -7683,6 +9003,18 @@
       <c r="S122" s="4">
         <v>8.133333333333333</v>
       </c>
+      <c r="T122" s="4">
+        <v>8.215789473684211</v>
+      </c>
+      <c r="U122" s="4">
+        <v>8.285</v>
+      </c>
+      <c r="V122" s="4">
+        <v>8.347619047619046</v>
+      </c>
+      <c r="W122" s="4">
+        <v>8.404545454545454</v>
+      </c>
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="3" t="s">
@@ -7742,6 +9074,18 @@
       <c r="S123" s="4">
         <v>5.433333333333334</v>
       </c>
+      <c r="T123" s="4">
+        <v>5.526315789473686</v>
+      </c>
+      <c r="U123" s="4">
+        <v>5.610000000000001</v>
+      </c>
+      <c r="V123" s="4">
+        <v>5.709523809523811</v>
+      </c>
+      <c r="W123" s="4">
+        <v>5.800000000000002</v>
+      </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="5" t="s">
@@ -7801,6 +9145,18 @@
       <c r="S124" s="4">
         <v>5.17777777777778</v>
       </c>
+      <c r="T124" s="4">
+        <v>5.321052631578949</v>
+      </c>
+      <c r="U124" s="4">
+        <v>5.500000000000002</v>
+      </c>
+      <c r="V124" s="4">
+        <v>5.685714285714288</v>
+      </c>
+      <c r="W124" s="4">
+        <v>5.854545454545456</v>
+      </c>
     </row>
     <row r="125" spans="1:23">
       <c r="A125" s="5" t="s">
@@ -7860,6 +9216,18 @@
       <c r="S125" s="4">
         <v>2.611111111111111</v>
       </c>
+      <c r="T125" s="4">
+        <v>2.473684210526316</v>
+      </c>
+      <c r="U125" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="V125" s="4">
+        <v>2.238095238095238</v>
+      </c>
+      <c r="W125" s="4">
+        <v>2.136363636363636</v>
+      </c>
     </row>
     <row r="126" spans="1:23">
       <c r="A126" s="6" t="s">
@@ -7919,6 +9287,18 @@
       <c r="S126" s="4">
         <v>10.15555555555556</v>
       </c>
+      <c r="T126" s="4">
+        <v>10.25263157894737</v>
+      </c>
+      <c r="U126" s="4">
+        <v>10.365</v>
+      </c>
+      <c r="V126" s="4">
+        <v>10.51428571428571</v>
+      </c>
+      <c r="W126" s="4">
+        <v>10.65</v>
+      </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127" s="6" t="s">
@@ -7978,6 +9358,18 @@
       <c r="S127" s="4">
         <v>9.316666666666666</v>
       </c>
+      <c r="T127" s="4">
+        <v>9.536842105263156</v>
+      </c>
+      <c r="U127" s="4">
+        <v>9.785</v>
+      </c>
+      <c r="V127" s="4">
+        <v>10.00952380952381</v>
+      </c>
+      <c r="W127" s="4">
+        <v>10.21363636363636</v>
+      </c>
     </row>
     <row r="128" spans="1:23">
       <c r="A128" s="7" t="s">
@@ -8037,8 +9429,20 @@
       <c r="S128" s="4">
         <v>8.977777777777776</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128" s="4">
+        <v>9.136842105263156</v>
+      </c>
+      <c r="U128" s="4">
+        <v>9.329999999999998</v>
+      </c>
+      <c r="V128" s="4">
+        <v>9.55238095238095</v>
+      </c>
+      <c r="W128" s="4">
+        <v>9.754545454545452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="7" t="s">
         <v>32</v>
       </c>
@@ -8096,8 +9500,20 @@
       <c r="S129" s="4">
         <v>11.38333333333333</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129" s="4">
+        <v>11.55789473684211</v>
+      </c>
+      <c r="U129" s="4">
+        <v>11.765</v>
+      </c>
+      <c r="V129" s="4">
+        <v>11.95714285714286</v>
+      </c>
+      <c r="W129" s="4">
+        <v>12.13181818181818</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="8" t="s">
         <v>33</v>
       </c>
@@ -8155,8 +9571,20 @@
       <c r="S130" s="4">
         <v>21.90555555555556</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130" s="4">
+        <v>21.98421052631579</v>
+      </c>
+      <c r="U130" s="4">
+        <v>22.045</v>
+      </c>
+      <c r="V130" s="4">
+        <v>22.11428571428571</v>
+      </c>
+      <c r="W130" s="4">
+        <v>22.17727272727273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="8" t="s">
         <v>34</v>
       </c>
@@ -8214,8 +9642,20 @@
       <c r="S131" s="4">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131" s="4">
+        <v>17.62105263157894</v>
+      </c>
+      <c r="U131" s="4">
+        <v>17.745</v>
+      </c>
+      <c r="V131" s="4">
+        <v>17.87142857142857</v>
+      </c>
+      <c r="W131" s="4">
+        <v>17.98636363636363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="9" t="s">
         <v>35</v>
       </c>
@@ -8273,8 +9713,20 @@
       <c r="S132" s="4">
         <v>7.299999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132" s="4">
+        <v>7.426315789473683</v>
+      </c>
+      <c r="U132" s="4">
+        <v>7.534999999999998</v>
+      </c>
+      <c r="V132" s="4">
+        <v>7.633333333333331</v>
+      </c>
+      <c r="W132" s="4">
+        <v>7.72272727272727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="9" t="s">
         <v>36</v>
       </c>
@@ -8332,8 +9784,20 @@
       <c r="S133" s="4">
         <v>4.338888888888888</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133" s="4">
+        <v>4.436842105263157</v>
+      </c>
+      <c r="U133" s="4">
+        <v>4.524999999999999</v>
+      </c>
+      <c r="V133" s="4">
+        <v>4.604761904761904</v>
+      </c>
+      <c r="W133" s="4">
+        <v>4.677272727272727</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="10" t="s">
         <v>37</v>
       </c>
@@ -8391,8 +9855,20 @@
       <c r="S134" s="4">
         <v>13.25555555555556</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134" s="4">
+        <v>13.55789473684211</v>
+      </c>
+      <c r="U134" s="4">
+        <v>13.88</v>
+      </c>
+      <c r="V134" s="4">
+        <v>14.16190476190476</v>
+      </c>
+      <c r="W134" s="4">
+        <v>14.41818181818182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="10" t="s">
         <v>38</v>
       </c>
@@ -8450,8 +9926,20 @@
       <c r="S135" s="4">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135" s="4">
+        <v>9.047368421052632</v>
+      </c>
+      <c r="U135" s="4">
+        <v>9.315000000000001</v>
+      </c>
+      <c r="V135" s="4">
+        <v>9.604761904761906</v>
+      </c>
+      <c r="W135" s="4">
+        <v>9.868181818181819</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="11" t="s">
         <v>39</v>
       </c>
@@ -8509,8 +9997,20 @@
       <c r="S136" s="4">
         <v>24.56111111111112</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136" s="4">
+        <v>24.59473684210527</v>
+      </c>
+      <c r="U136" s="4">
+        <v>24.625</v>
+      </c>
+      <c r="V136" s="4">
+        <v>24.65714285714286</v>
+      </c>
+      <c r="W136" s="4">
+        <v>24.68636363636364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="11" t="s">
         <v>40</v>
       </c>
@@ -8568,8 +10068,20 @@
       <c r="S137" s="4">
         <v>18.99444444444444</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137" s="4">
+        <v>19.06315789473684</v>
+      </c>
+      <c r="U137" s="4">
+        <v>19.115</v>
+      </c>
+      <c r="V137" s="4">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="W137" s="4">
+        <v>19.21363636363636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="12" t="s">
         <v>41</v>
       </c>
@@ -8627,8 +10139,20 @@
       <c r="S138" s="4">
         <v>28.10555555555556</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138" s="4">
+        <v>28.18947368421053</v>
+      </c>
+      <c r="U138" s="4">
+        <v>28.27500000000001</v>
+      </c>
+      <c r="V138" s="4">
+        <v>28.35714285714286</v>
+      </c>
+      <c r="W138" s="4">
+        <v>28.43181818181819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="12" t="s">
         <v>42</v>
       </c>
@@ -8686,8 +10210,20 @@
       <c r="S139" s="4">
         <v>19.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139" s="4">
+        <v>19.39473684210527</v>
+      </c>
+      <c r="U139" s="4">
+        <v>19.45</v>
+      </c>
+      <c r="V139" s="4">
+        <v>19.51428571428572</v>
+      </c>
+      <c r="W139" s="4">
+        <v>19.57272727272728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="13" t="s">
         <v>43</v>
       </c>
@@ -8745,8 +10281,20 @@
       <c r="S140" s="4">
         <v>7.111111111111111</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140" s="4">
+        <v>7.331578947368421</v>
+      </c>
+      <c r="U140" s="4">
+        <v>7.530000000000001</v>
+      </c>
+      <c r="V140" s="4">
+        <v>7.709523809523811</v>
+      </c>
+      <c r="W140" s="4">
+        <v>7.872727272727275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="13" t="s">
         <v>44</v>
       </c>
@@ -8804,8 +10352,20 @@
       <c r="S141" s="4">
         <v>4.222222222222222</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141" s="4">
+        <v>4.278947368421052</v>
+      </c>
+      <c r="U141" s="4">
+        <v>4.355</v>
+      </c>
+      <c r="V141" s="4">
+        <v>4.423809523809523</v>
+      </c>
+      <c r="W141" s="4">
+        <v>4.486363636363635</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="5" t="s">
         <v>27</v>
       </c>
@@ -8863,8 +10423,20 @@
       <c r="S142" s="4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142" s="4">
+        <v>1.447368421052632</v>
+      </c>
+      <c r="U142" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="V142" s="4">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W142" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="5" t="s">
         <v>28</v>
       </c>
@@ -8921,6 +10493,18 @@
       </c>
       <c r="S143" s="4">
         <v>1.444444444444444</v>
+      </c>
+      <c r="T143" s="4">
+        <v>1.368421052631579</v>
+      </c>
+      <c r="U143" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="V143" s="4">
+        <v>1.238095238095238</v>
+      </c>
+      <c r="W143" s="4">
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -9052,6 +10636,18 @@
       <c r="S146" s="4">
         <v>1.086956521739131</v>
       </c>
+      <c r="T146" s="4">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="U146" s="4">
+        <v>-1.958762886597938</v>
+      </c>
+      <c r="V146" s="4">
+        <v>-0.5208333333333334</v>
+      </c>
+      <c r="W146" s="4">
+        <v>0.4166666666666667</v>
+      </c>
     </row>
     <row r="147" spans="1:23">
       <c r="A147" s="3" t="s">
@@ -9111,6 +10707,18 @@
       <c r="S147" s="4">
         <v>0.2777777777777778</v>
       </c>
+      <c r="T147" s="4">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="U147" s="4">
+        <v>-1.527777777777778</v>
+      </c>
+      <c r="V147" s="4">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W147" s="4">
+        <v>1.298701298701299</v>
+      </c>
     </row>
     <row r="148" spans="1:23">
       <c r="A148" s="5" t="s">
@@ -9170,6 +10778,18 @@
       <c r="S148" s="4">
         <v>5.084745762711864</v>
       </c>
+      <c r="T148" s="4">
+        <v>2.898550724637681</v>
+      </c>
+      <c r="U148" s="4">
+        <v>2.784810126582278</v>
+      </c>
+      <c r="V148" s="4">
+        <v>1.573033707865168</v>
+      </c>
+      <c r="W148" s="4">
+        <v>2.234042553191489</v>
+      </c>
     </row>
     <row r="149" spans="1:23">
       <c r="A149" s="5" t="s">
@@ -9229,6 +10849,18 @@
       <c r="S149" s="4">
         <v>0</v>
       </c>
+      <c r="T149" s="4">
+        <v>0</v>
+      </c>
+      <c r="U149" s="4">
+        <v>0</v>
+      </c>
+      <c r="V149" s="4">
+        <v>0</v>
+      </c>
+      <c r="W149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:23">
       <c r="A150" s="6" t="s">
@@ -9288,6 +10920,18 @@
       <c r="S150" s="4">
         <v>-0.8695652173913043</v>
       </c>
+      <c r="T150" s="4">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="U150" s="4">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="V150" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W150" s="4">
+        <v>0.1481481481481481</v>
+      </c>
     </row>
     <row r="151" spans="1:23">
       <c r="A151" s="6" t="s">
@@ -9347,6 +10991,18 @@
       <c r="S151" s="4">
         <v>1.833333333333333</v>
       </c>
+      <c r="T151" s="4">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="U151" s="4">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="V151" s="4">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="W151" s="4">
+        <v>0.2758620689655172</v>
+      </c>
     </row>
     <row r="152" spans="1:23">
       <c r="A152" s="7" t="s">
@@ -9406,6 +11062,18 @@
       <c r="S152" s="4">
         <v>0.9090909090909091</v>
       </c>
+      <c r="T152" s="4">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="U152" s="4">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="V152" s="4">
+        <v>3</v>
+      </c>
+      <c r="W152" s="4">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="153" spans="1:23">
       <c r="A153" s="7" t="s">
@@ -9465,6 +11133,18 @@
       <c r="S153" s="4">
         <v>-0.5844155844155844</v>
       </c>
+      <c r="T153" s="4">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="U153" s="4">
+        <v>2.653061224489796</v>
+      </c>
+      <c r="V153" s="4">
+        <v>0.7643312101910829</v>
+      </c>
+      <c r="W153" s="4">
+        <v>1.012658227848101</v>
+      </c>
     </row>
     <row r="154" spans="1:23">
       <c r="A154" s="8" t="s">
@@ -9524,6 +11204,18 @@
       <c r="S154" s="4">
         <v>-0.4291845493562232</v>
       </c>
+      <c r="T154" s="4">
+        <v>1.038961038961039</v>
+      </c>
+      <c r="U154" s="4">
+        <v>-0.1282051282051282</v>
+      </c>
+      <c r="V154" s="4">
+        <v>1.767241379310345</v>
+      </c>
+      <c r="W154" s="4">
+        <v>1.234042553191489</v>
+      </c>
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="8" t="s">
@@ -9583,6 +11275,18 @@
       <c r="S155" s="4">
         <v>1.649484536082474</v>
       </c>
+      <c r="T155" s="4">
+        <v>0.9644670050761421</v>
+      </c>
+      <c r="U155" s="4">
+        <v>1.060606060606061</v>
+      </c>
+      <c r="V155" s="4">
+        <v>1.691542288557214</v>
+      </c>
+      <c r="W155" s="4">
+        <v>0.196078431372549</v>
+      </c>
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="9" t="s">
@@ -9642,6 +11346,18 @@
       <c r="S156" s="4">
         <v>1.290322580645161</v>
       </c>
+      <c r="T156" s="4">
+        <v>-1.63265306122449</v>
+      </c>
+      <c r="U156" s="4">
+        <v>-2.164948453608248</v>
+      </c>
+      <c r="V156" s="4">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="W156" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:23">
       <c r="A157" s="9" t="s">
@@ -9701,6 +11417,18 @@
       <c r="S157" s="4">
         <v>3.269230769230769</v>
       </c>
+      <c r="T157" s="4">
+        <v>1.403508771929824</v>
+      </c>
+      <c r="U157" s="4">
+        <v>-0.1612903225806452</v>
+      </c>
+      <c r="V157" s="4">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="W157" s="4">
+        <v>-0.4838709677419354</v>
+      </c>
     </row>
     <row r="158" spans="1:23">
       <c r="A158" s="10" t="s">
@@ -9760,6 +11488,18 @@
       <c r="S158" s="4">
         <v>2.705882352941177</v>
       </c>
+      <c r="T158" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="U158" s="4">
+        <v>3</v>
+      </c>
+      <c r="V158" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="W158" s="4">
+        <v>1.111111111111111</v>
+      </c>
     </row>
     <row r="159" spans="1:23">
       <c r="A159" s="10" t="s">
@@ -9819,6 +11559,18 @@
       <c r="S159" s="4">
         <v>-1.428571428571429</v>
       </c>
+      <c r="T159" s="4">
+        <v>1.007194244604317</v>
+      </c>
+      <c r="U159" s="4">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="V159" s="4">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="W159" s="4">
+        <v>1.233766233766234</v>
+      </c>
     </row>
     <row r="160" spans="1:23">
       <c r="A160" s="11" t="s">
@@ -9878,6 +11630,18 @@
       <c r="S160" s="4">
         <v>-0.158102766798419</v>
       </c>
+      <c r="T160" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="U160" s="4">
+        <v>0.5158730158730159</v>
+      </c>
+      <c r="V160" s="4">
+        <v>1.031746031746032</v>
+      </c>
+      <c r="W160" s="4">
+        <v>0.5533596837944664</v>
+      </c>
     </row>
     <row r="161" spans="1:23">
       <c r="A161" s="11" t="s">
@@ -9937,6 +11701,18 @@
       <c r="S161" s="4">
         <v>1.256281407035176</v>
       </c>
+      <c r="T161" s="4">
+        <v>0.8910891089108911</v>
+      </c>
+      <c r="U161" s="4">
+        <v>0.04926108374384236</v>
+      </c>
+      <c r="V161" s="4">
+        <v>0.6965174129353233</v>
+      </c>
+      <c r="W161" s="4">
+        <v>1.584158415841584</v>
+      </c>
     </row>
     <row r="162" spans="1:23">
       <c r="A162" s="12" t="s">
@@ -9996,6 +11772,18 @@
       <c r="S162" s="4">
         <v>1.808873720136519</v>
       </c>
+      <c r="T162" s="4">
+        <v>1.423728813559322</v>
+      </c>
+      <c r="U162" s="4">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="V162" s="4">
+        <v>1.471571906354515</v>
+      </c>
+      <c r="W162" s="4">
+        <v>1.566666666666667</v>
+      </c>
     </row>
     <row r="163" spans="1:23">
       <c r="A163" s="12" t="s">
@@ -10055,6 +11843,18 @@
       <c r="S163" s="4">
         <v>1.592039800995025</v>
       </c>
+      <c r="T163" s="4">
+        <v>-0.4901960784313726</v>
+      </c>
+      <c r="U163" s="4">
+        <v>1.831683168316832</v>
+      </c>
+      <c r="V163" s="4">
+        <v>1.707317073170732</v>
+      </c>
+      <c r="W163" s="4">
+        <v>1.442307692307692</v>
+      </c>
     </row>
     <row r="164" spans="1:23">
       <c r="A164" s="13" t="s">
@@ -10114,6 +11914,18 @@
       <c r="S164" s="4">
         <v>1.359223300970874</v>
       </c>
+      <c r="T164" s="4">
+        <v>1.203703703703704</v>
+      </c>
+      <c r="U164" s="4">
+        <v>-0.9734513274336283</v>
+      </c>
+      <c r="V164" s="4">
+        <v>0</v>
+      </c>
+      <c r="W164" s="4">
+        <v>0.5309734513274336</v>
+      </c>
     </row>
     <row r="165" spans="1:23">
       <c r="A165" s="13" t="s">
@@ -10173,6 +11985,18 @@
       <c r="S165" s="4">
         <v>3.333333333333333</v>
       </c>
+      <c r="T165" s="4">
+        <v>1.132075471698113</v>
+      </c>
+      <c r="U165" s="4">
+        <v>2.264150943396226</v>
+      </c>
+      <c r="V165" s="4">
+        <v>-0.5172413793103449</v>
+      </c>
+      <c r="W165" s="4">
+        <v>0.8620689655172414</v>
+      </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="5" t="s">
@@ -10232,6 +12056,18 @@
       <c r="S166" s="4">
         <v>0.2222222222222222</v>
       </c>
+      <c r="T166" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="U166" s="4">
+        <v>2</v>
+      </c>
+      <c r="V166" s="4">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="W166" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:23">
       <c r="A167" s="5" t="s">
@@ -10291,6 +12127,18 @@
       <c r="S167" s="4">
         <v>0</v>
       </c>
+      <c r="T167" s="4">
+        <v>0</v>
+      </c>
+      <c r="U167" s="4">
+        <v>0</v>
+      </c>
+      <c r="V167" s="4">
+        <v>0</v>
+      </c>
+      <c r="W167" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="1" t="s">
@@ -10421,6 +12269,18 @@
       <c r="S170" s="4">
         <v>0.4465592972181551</v>
       </c>
+      <c r="T170" s="4">
+        <v>0.430622009569378</v>
+      </c>
+      <c r="U170" s="4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="V170" s="4">
+        <v>0.2355072463768116</v>
+      </c>
+      <c r="W170" s="4">
+        <v>0.2454337899543379</v>
+      </c>
     </row>
     <row r="171" spans="1:23">
       <c r="A171" s="3" t="s">
@@ -10480,6 +12340,18 @@
       <c r="S171" s="4">
         <v>1.277486910994764</v>
       </c>
+      <c r="T171" s="4">
+        <v>1.207400194741967</v>
+      </c>
+      <c r="U171" s="4">
+        <v>1.02820746132848</v>
+      </c>
+      <c r="V171" s="4">
+        <v>1.067463706233988</v>
+      </c>
+      <c r="W171" s="4">
+        <v>1.081730769230769</v>
+      </c>
     </row>
     <row r="172" spans="1:23">
       <c r="A172" s="5" t="s">
@@ -10539,6 +12411,18 @@
       <c r="S172" s="4">
         <v>0.9110867178924257</v>
       </c>
+      <c r="T172" s="4">
+        <v>1.051020408163265</v>
+      </c>
+      <c r="U172" s="4">
+        <v>1.180358829084041</v>
+      </c>
+      <c r="V172" s="4">
+        <v>1.210801393728222</v>
+      </c>
+      <c r="W172" s="4">
+        <v>1.288244766505636</v>
+      </c>
     </row>
     <row r="173" spans="1:23">
       <c r="A173" s="5" t="s">
@@ -10598,6 +12482,18 @@
       <c r="S173" s="4">
         <v>0.5263157894736842</v>
       </c>
+      <c r="T173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="U173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="V173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="W173" s="4">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="174" spans="1:23">
       <c r="A174" s="6" t="s">
@@ -10657,6 +12553,18 @@
       <c r="S174" s="4">
         <v>0.2823920265780731</v>
       </c>
+      <c r="T174" s="4">
+        <v>0.3175429463820926</v>
+      </c>
+      <c r="U174" s="4">
+        <v>0.3821656050955414</v>
+      </c>
+      <c r="V174" s="4">
+        <v>0.5447830101569713</v>
+      </c>
+      <c r="W174" s="4">
+        <v>0.5215123859191655</v>
+      </c>
     </row>
     <row r="175" spans="1:23">
       <c r="A175" s="6" t="s">
@@ -10716,6 +12624,18 @@
       <c r="S175" s="4">
         <v>1.172498465316145</v>
       </c>
+      <c r="T175" s="4">
+        <v>1.14269471290506</v>
+      </c>
+      <c r="U175" s="4">
+        <v>1.187961985216473</v>
+      </c>
+      <c r="V175" s="4">
+        <v>1.108386463952918</v>
+      </c>
+      <c r="W175" s="4">
+        <v>1.053113553113553</v>
+      </c>
     </row>
     <row r="176" spans="1:23">
       <c r="A176" s="7" t="s">
@@ -10775,8 +12695,20 @@
       <c r="S176" s="4">
         <v>0.9857239972807617</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176" s="4">
+        <v>0.96469104665826</v>
+      </c>
+      <c r="U176" s="4">
+        <v>1.060961313012896</v>
+      </c>
+      <c r="V176" s="4">
+        <v>1.198257080610022</v>
+      </c>
+      <c r="W176" s="4">
+        <v>1.169028340080972</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" s="7" t="s">
         <v>32</v>
       </c>
@@ -10834,8 +12766,20 @@
       <c r="S177" s="4">
         <v>1.77598385469223</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177" s="4">
+        <v>1.574507966260543</v>
+      </c>
+      <c r="U177" s="4">
+        <v>1.644015782551512</v>
+      </c>
+      <c r="V177" s="4">
+        <v>1.587366694011485</v>
+      </c>
+      <c r="W177" s="4">
+        <v>1.552388289676425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" s="8" t="s">
         <v>33</v>
       </c>
@@ -10893,8 +12837,20 @@
       <c r="S178" s="4">
         <v>0.6219729798623502</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178" s="4">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="U178" s="4">
+        <v>0.6039197812215132</v>
+      </c>
+      <c r="V178" s="4">
+        <v>0.6623376623376623</v>
+      </c>
+      <c r="W178" s="4">
+        <v>0.690010298661174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" s="8" t="s">
         <v>34</v>
       </c>
@@ -10952,8 +12908,20 @@
       <c r="S179" s="4">
         <v>1.0112</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179" s="4">
+        <v>1.00842865743528</v>
+      </c>
+      <c r="U179" s="4">
+        <v>1.011363636363636</v>
+      </c>
+      <c r="V179" s="4">
+        <v>1.048105348024725</v>
+      </c>
+      <c r="W179" s="4">
+        <v>1.003821656050956</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" s="9" t="s">
         <v>35</v>
       </c>
@@ -11011,8 +12979,20 @@
       <c r="S180" s="4">
         <v>0.9926168990976212</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180" s="4">
+        <v>0.7972665148063782</v>
+      </c>
+      <c r="U180" s="4">
+        <v>0.5940594059405941</v>
+      </c>
+      <c r="V180" s="4">
+        <v>0.5894039735099339</v>
+      </c>
+      <c r="W180" s="4">
+        <v>0.5894039735099339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" s="9" t="s">
         <v>36</v>
       </c>
@@ -11070,8 +13050,20 @@
       <c r="S181" s="4">
         <v>0.8255451713395642</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181" s="4">
+        <v>0.872675250357654</v>
+      </c>
+      <c r="U181" s="4">
+        <v>0.7884362680683313</v>
+      </c>
+      <c r="V181" s="4">
+        <v>0.753341433778858</v>
+      </c>
+      <c r="W181" s="4">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" s="10" t="s">
         <v>37</v>
       </c>
@@ -11129,8 +13121,20 @@
       <c r="S182" s="4">
         <v>1.473922902494331</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182" s="4">
+        <v>1.563941299790356</v>
+      </c>
+      <c r="U182" s="4">
+        <v>1.669902912621359</v>
+      </c>
+      <c r="V182" s="4">
+        <v>1.499099099099099</v>
+      </c>
+      <c r="W182" s="4">
+        <v>1.473259334006054</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" s="10" t="s">
         <v>38</v>
       </c>
@@ -11188,8 +13192,20 @@
       <c r="S183" s="4">
         <v>1.355481727574751</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183" s="4">
+        <v>1.326034063260341</v>
+      </c>
+      <c r="U183" s="4">
+        <v>1.236017897091723</v>
+      </c>
+      <c r="V183" s="4">
+        <v>1.34575569358178</v>
+      </c>
+      <c r="W183" s="4">
+        <v>1.337488015340364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" s="11" t="s">
         <v>39</v>
       </c>
@@ -11247,8 +13263,20 @@
       <c r="S184" s="4">
         <v>0.9346642468239563</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184" s="4">
+        <v>0.9725203950193214</v>
+      </c>
+      <c r="U184" s="4">
+        <v>0.9490835030549897</v>
+      </c>
+      <c r="V184" s="4">
+        <v>0.953118946144905</v>
+      </c>
+      <c r="W184" s="4">
+        <v>0.9344413665743305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" s="11" t="s">
         <v>40</v>
       </c>
@@ -11306,8 +13334,20 @@
       <c r="S185" s="4">
         <v>0.9374081692624154</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185" s="4">
+        <v>0.9348127600554785</v>
+      </c>
+      <c r="U185" s="4">
+        <v>0.8876050420168067</v>
+      </c>
+      <c r="V185" s="4">
+        <v>0.8780244449987528</v>
+      </c>
+      <c r="W185" s="4">
+        <v>0.9118974115412015</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
@@ -11365,8 +13405,20 @@
       <c r="S186" s="4">
         <v>1.660707191100516</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186" s="4">
+        <v>1.647588665790955</v>
+      </c>
+      <c r="U186" s="4">
+        <v>1.640597227159616</v>
+      </c>
+      <c r="V186" s="4">
+        <v>1.632067510548523</v>
+      </c>
+      <c r="W186" s="4">
+        <v>1.628915662650602</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" s="12" t="s">
         <v>42</v>
       </c>
@@ -11424,8 +13476,20 @@
       <c r="S187" s="4">
         <v>1.407514450867052</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187" s="4">
+        <v>1.301855895196506</v>
+      </c>
+      <c r="U187" s="4">
+        <v>1.329539575788929</v>
+      </c>
+      <c r="V187" s="4">
+        <v>1.348563006632277</v>
+      </c>
+      <c r="W187" s="4">
+        <v>1.353119887824258</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" s="13" t="s">
         <v>43</v>
       </c>
@@ -11483,8 +13547,20 @@
       <c r="S188" s="4">
         <v>1.003401360544218</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188" s="4">
+        <v>1.020249221183801</v>
+      </c>
+      <c r="U188" s="4">
+        <v>0.8589835361488903</v>
+      </c>
+      <c r="V188" s="4">
+        <v>0.8589835361488903</v>
+      </c>
+      <c r="W188" s="4">
+        <v>0.8344370860927151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" s="13" t="s">
         <v>44</v>
       </c>
@@ -11542,8 +13618,20 @@
       <c r="S189" s="4">
         <v>-0.5203938115330521</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189" s="4">
+        <v>-0.405759162303665</v>
+      </c>
+      <c r="U189" s="4">
+        <v>-0.2325581395348837</v>
+      </c>
+      <c r="V189" s="4">
+        <v>-0.2514285714285714</v>
+      </c>
+      <c r="W189" s="4">
+        <v>-0.1822079314040729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" s="5" t="s">
         <v>27</v>
       </c>
@@ -11601,8 +13689,20 @@
       <c r="S190" s="4">
         <v>0.7407407407407407</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190" s="4">
+        <v>1.222222222222222</v>
+      </c>
+      <c r="U190" s="4">
+        <v>1.391304347826087</v>
+      </c>
+      <c r="V190" s="4">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W190" s="4">
+        <v>1.441176470588235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" s="5" t="s">
         <v>28</v>
       </c>
@@ -11658,6 +13758,18 @@
         <v>0.8076923076923077</v>
       </c>
       <c r="S191" s="4">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="T191" s="4">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="U191" s="4">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="V191" s="4">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="W191" s="4">
         <v>0.8076923076923077</v>
       </c>
     </row>
@@ -11803,6 +13915,18 @@
       <c r="S2" s="4">
         <v>15</v>
       </c>
+      <c r="T2" s="4">
+        <v>14</v>
+      </c>
+      <c r="U2" s="4">
+        <v>-31</v>
+      </c>
+      <c r="V2" s="4">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
@@ -11862,6 +13986,18 @@
       <c r="S3" s="4">
         <v>34</v>
       </c>
+      <c r="T3" s="4">
+        <v>42</v>
+      </c>
+      <c r="U3" s="4">
+        <v>31</v>
+      </c>
+      <c r="V3" s="4">
+        <v>26</v>
+      </c>
+      <c r="W3" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
@@ -11921,6 +14057,18 @@
       <c r="S4" s="4">
         <v>27</v>
       </c>
+      <c r="T4" s="4">
+        <v>21</v>
+      </c>
+      <c r="U4" s="4">
+        <v>44</v>
+      </c>
+      <c r="V4" s="4">
+        <v>46</v>
+      </c>
+      <c r="W4" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7" t="s">
@@ -11980,6 +14128,18 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
+      <c r="T5" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U5" s="4">
+        <v>77</v>
+      </c>
+      <c r="V5" s="4">
+        <v>56</v>
+      </c>
+      <c r="W5" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="8" t="s">
@@ -12039,6 +14199,18 @@
       <c r="S6" s="4">
         <v>35</v>
       </c>
+      <c r="T6" s="4">
+        <v>63</v>
+      </c>
+      <c r="U6" s="4">
+        <v>28</v>
+      </c>
+      <c r="V6" s="4">
+        <v>78</v>
+      </c>
+      <c r="W6" s="4">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
@@ -12098,6 +14270,18 @@
       <c r="S7" s="4">
         <v>30</v>
       </c>
+      <c r="T7" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U7" s="4">
+        <v>-19</v>
+      </c>
+      <c r="V7" s="4">
+        <v>12</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="10" t="s">
@@ -12157,6 +14341,18 @@
       <c r="S8" s="4">
         <v>36</v>
       </c>
+      <c r="T8" s="4">
+        <v>57</v>
+      </c>
+      <c r="U8" s="4">
+        <v>65</v>
+      </c>
+      <c r="V8" s="4">
+        <v>34</v>
+      </c>
+      <c r="W8" s="4">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="11" t="s">
@@ -12216,6 +14412,18 @@
       <c r="S9" s="4">
         <v>31</v>
       </c>
+      <c r="T9" s="4">
+        <v>69</v>
+      </c>
+      <c r="U9" s="4">
+        <v>24</v>
+      </c>
+      <c r="V9" s="4">
+        <v>45</v>
+      </c>
+      <c r="W9" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="12" t="s">
@@ -12275,6 +14483,18 @@
       <c r="S10" s="4">
         <v>95</v>
       </c>
+      <c r="T10" s="4">
+        <v>45</v>
+      </c>
+      <c r="U10" s="4">
+        <v>105</v>
+      </c>
+      <c r="V10" s="4">
+        <v>84</v>
+      </c>
+      <c r="W10" s="4">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="13" t="s">
@@ -12334,6 +14554,18 @@
       <c r="S11" s="4">
         <v>29</v>
       </c>
+      <c r="T11" s="4">
+        <v>20</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>7</v>
+      </c>
+      <c r="W11" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
@@ -12464,6 +14696,18 @@
       <c r="S14" s="4">
         <v>6.7</v>
       </c>
+      <c r="T14" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="U14" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="V14" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="W14" s="4">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
@@ -12523,6 +14767,18 @@
       <c r="S15" s="4">
         <v>7.2</v>
       </c>
+      <c r="T15" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="U15" s="4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V15" s="4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W15" s="4">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
@@ -12582,6 +14838,18 @@
       <c r="S16" s="4">
         <v>12.7</v>
       </c>
+      <c r="T16" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="V16" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7" t="s">
@@ -12641,6 +14909,18 @@
       <c r="S17" s="4">
         <v>12</v>
       </c>
+      <c r="T17" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="U17" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="V17" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="W17" s="4">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
@@ -12700,6 +14980,18 @@
       <c r="S18" s="4">
         <v>24.3</v>
       </c>
+      <c r="T18" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="U18" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="V18" s="4">
+        <v>25</v>
+      </c>
+      <c r="W18" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="9" t="s">
@@ -12759,6 +15051,18 @@
       <c r="S19" s="4">
         <v>7.4</v>
       </c>
+      <c r="T19" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="U19" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="W19" s="4">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="10" t="s">
@@ -12818,6 +15122,18 @@
       <c r="S20" s="4">
         <v>16.4</v>
       </c>
+      <c r="T20" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="U20" s="4">
+        <v>17</v>
+      </c>
+      <c r="V20" s="4">
+        <v>17.1</v>
+      </c>
+      <c r="W20" s="4">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="11" t="s">
@@ -12877,6 +15193,18 @@
       <c r="S21" s="4">
         <v>25.9</v>
       </c>
+      <c r="T21" s="4">
+        <v>26</v>
+      </c>
+      <c r="U21" s="4">
+        <v>26</v>
+      </c>
+      <c r="V21" s="4">
+        <v>26</v>
+      </c>
+      <c r="W21" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
@@ -12936,6 +15264,18 @@
       <c r="S22" s="4">
         <v>29.4</v>
       </c>
+      <c r="T22" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="U22" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="V22" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="W22" s="4">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="13" t="s">
@@ -12995,6 +15335,18 @@
       <c r="S23" s="4">
         <v>7.3</v>
       </c>
+      <c r="T23" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="U23" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="V23" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="W23" s="4">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
@@ -13125,6 +15477,18 @@
       <c r="S26" s="4">
         <v>214</v>
       </c>
+      <c r="T26" s="4">
+        <v>228</v>
+      </c>
+      <c r="U26" s="4">
+        <v>197</v>
+      </c>
+      <c r="V26" s="4">
+        <v>209</v>
+      </c>
+      <c r="W26" s="4">
+        <v>222</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
@@ -13184,6 +15548,18 @@
       <c r="S27" s="4">
         <v>182</v>
       </c>
+      <c r="T27" s="4">
+        <v>224</v>
+      </c>
+      <c r="U27" s="4">
+        <v>255</v>
+      </c>
+      <c r="V27" s="4">
+        <v>281</v>
+      </c>
+      <c r="W27" s="4">
+        <v>308</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="6" t="s">
@@ -13243,6 +15619,18 @@
       <c r="S28" s="4">
         <v>345</v>
       </c>
+      <c r="T28" s="4">
+        <v>366</v>
+      </c>
+      <c r="U28" s="4">
+        <v>410</v>
+      </c>
+      <c r="V28" s="4">
+        <v>456</v>
+      </c>
+      <c r="W28" s="4">
+        <v>467</v>
+      </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="7" t="s">
@@ -13302,6 +15690,18 @@
       <c r="S29" s="4">
         <v>599</v>
       </c>
+      <c r="T29" s="4">
+        <v>592</v>
+      </c>
+      <c r="U29" s="4">
+        <v>669</v>
+      </c>
+      <c r="V29" s="4">
+        <v>725</v>
+      </c>
+      <c r="W29" s="4">
+        <v>757</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="8" t="s">
@@ -13361,6 +15761,18 @@
       <c r="S30" s="4">
         <v>790</v>
       </c>
+      <c r="T30" s="4">
+        <v>853</v>
+      </c>
+      <c r="U30" s="4">
+        <v>881</v>
+      </c>
+      <c r="V30" s="4">
+        <v>959</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1007</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="9" t="s">
@@ -13420,6 +15832,18 @@
       <c r="S31" s="4">
         <v>227</v>
       </c>
+      <c r="T31" s="4">
+        <v>220</v>
+      </c>
+      <c r="U31" s="4">
+        <v>201</v>
+      </c>
+      <c r="V31" s="4">
+        <v>213</v>
+      </c>
+      <c r="W31" s="4">
+        <v>215</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="10" t="s">
@@ -13479,6 +15903,18 @@
       <c r="S32" s="4">
         <v>684</v>
       </c>
+      <c r="T32" s="4">
+        <v>741</v>
+      </c>
+      <c r="U32" s="4">
+        <v>806</v>
+      </c>
+      <c r="V32" s="4">
+        <v>840</v>
+      </c>
+      <c r="W32" s="4">
+        <v>899</v>
+      </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="11" t="s">
@@ -13538,6 +15974,18 @@
       <c r="S33" s="4">
         <v>871</v>
       </c>
+      <c r="T33" s="4">
+        <v>940</v>
+      </c>
+      <c r="U33" s="4">
+        <v>964</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1009</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1060</v>
+      </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="12" t="s">
@@ -13597,6 +16045,18 @@
       <c r="S34" s="4">
         <v>1526</v>
       </c>
+      <c r="T34" s="4">
+        <v>1571</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1676</v>
+      </c>
+      <c r="V34" s="4">
+        <v>1760</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1847</v>
+      </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="13" t="s">
@@ -13656,6 +16116,18 @@
       <c r="S35" s="4">
         <v>110</v>
       </c>
+      <c r="T35" s="4">
+        <v>130</v>
+      </c>
+      <c r="U35" s="4">
+        <v>132</v>
+      </c>
+      <c r="V35" s="4">
+        <v>139</v>
+      </c>
+      <c r="W35" s="4">
+        <v>151</v>
+      </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1" t="s">
@@ -13786,6 +16258,18 @@
       <c r="S38" s="4">
         <v>110.8</v>
       </c>
+      <c r="T38" s="4">
+        <v>117.5</v>
+      </c>
+      <c r="U38" s="4">
+        <v>124.1</v>
+      </c>
+      <c r="V38" s="4">
+        <v>130.7</v>
+      </c>
+      <c r="W38" s="4">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="5" t="s">
@@ -13845,6 +16329,18 @@
       <c r="S39" s="4">
         <v>112.9</v>
       </c>
+      <c r="T39" s="4">
+        <v>120.6</v>
+      </c>
+      <c r="U39" s="4">
+        <v>128.8</v>
+      </c>
+      <c r="V39" s="4">
+        <v>137.5</v>
+      </c>
+      <c r="W39" s="4">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="6" t="s">
@@ -13904,6 +16400,18 @@
       <c r="S40" s="4">
         <v>192.4999999999999</v>
       </c>
+      <c r="T40" s="4">
+        <v>205.6999999999999</v>
+      </c>
+      <c r="U40" s="4">
+        <v>219.3999999999999</v>
+      </c>
+      <c r="V40" s="4">
+        <v>233.5999999999999</v>
+      </c>
+      <c r="W40" s="4">
+        <v>247.7999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
@@ -13963,6 +16471,18 @@
       <c r="S41" s="4">
         <v>163</v>
       </c>
+      <c r="T41" s="4">
+        <v>174.9</v>
+      </c>
+      <c r="U41" s="4">
+        <v>187.8</v>
+      </c>
+      <c r="V41" s="4">
+        <v>201.2</v>
+      </c>
+      <c r="W41" s="4">
+        <v>214.6</v>
+      </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="8" t="s">
@@ -14022,6 +16542,18 @@
       <c r="S42" s="4">
         <v>412.6</v>
       </c>
+      <c r="T42" s="4">
+        <v>437.2</v>
+      </c>
+      <c r="U42" s="4">
+        <v>461.9</v>
+      </c>
+      <c r="V42" s="4">
+        <v>486.9</v>
+      </c>
+      <c r="W42" s="4">
+        <v>511.9</v>
+      </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="9" t="s">
@@ -14081,6 +16613,18 @@
       <c r="S43" s="4">
         <v>100.6</v>
       </c>
+      <c r="T43" s="4">
+        <v>107.9</v>
+      </c>
+      <c r="U43" s="4">
+        <v>115.1</v>
+      </c>
+      <c r="V43" s="4">
+        <v>122.3</v>
+      </c>
+      <c r="W43" s="4">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="10" t="s">
@@ -14140,6 +16684,18 @@
       <c r="S44" s="4">
         <v>204</v>
       </c>
+      <c r="T44" s="4">
+        <v>220.7</v>
+      </c>
+      <c r="U44" s="4">
+        <v>237.7</v>
+      </c>
+      <c r="V44" s="4">
+        <v>254.8</v>
+      </c>
+      <c r="W44" s="4">
+        <v>271.9</v>
+      </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="11" t="s">
@@ -14199,6 +16755,18 @@
       <c r="S45" s="4">
         <v>456.8999999999999</v>
       </c>
+      <c r="T45" s="4">
+        <v>482.8999999999999</v>
+      </c>
+      <c r="U45" s="4">
+        <v>508.8999999999999</v>
+      </c>
+      <c r="V45" s="4">
+        <v>534.8999999999999</v>
+      </c>
+      <c r="W45" s="4">
+        <v>560.8999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="12" t="s">
@@ -14258,6 +16826,18 @@
       <c r="S46" s="4">
         <v>507.1</v>
       </c>
+      <c r="T46" s="4">
+        <v>536.5</v>
+      </c>
+      <c r="U46" s="4">
+        <v>566.1</v>
+      </c>
+      <c r="V46" s="4">
+        <v>595.8000000000001</v>
+      </c>
+      <c r="W46" s="4">
+        <v>625.5000000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="13" t="s">
@@ -14317,6 +16897,18 @@
       <c r="S47" s="4">
         <v>100.6</v>
       </c>
+      <c r="T47" s="4">
+        <v>108.4</v>
+      </c>
+      <c r="U47" s="4">
+        <v>116.2</v>
+      </c>
+      <c r="V47" s="4">
+        <v>124</v>
+      </c>
+      <c r="W47" s="4">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="1" t="s">
@@ -14447,6 +17039,18 @@
       <c r="S50" s="4">
         <v>11.88888888888889</v>
       </c>
+      <c r="T50" s="4">
+        <v>12</v>
+      </c>
+      <c r="U50" s="4">
+        <v>9.85</v>
+      </c>
+      <c r="V50" s="4">
+        <v>9.952380952380953</v>
+      </c>
+      <c r="W50" s="4">
+        <v>10.09090909090909</v>
+      </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="5" t="s">
@@ -14506,6 +17110,18 @@
       <c r="S51" s="4">
         <v>10.11111111111111</v>
       </c>
+      <c r="T51" s="4">
+        <v>11.78947368421053</v>
+      </c>
+      <c r="U51" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="V51" s="4">
+        <v>13.38095238095238</v>
+      </c>
+      <c r="W51" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="6" t="s">
@@ -14565,6 +17181,18 @@
       <c r="S52" s="4">
         <v>19.16666666666667</v>
       </c>
+      <c r="T52" s="4">
+        <v>19.26315789473684</v>
+      </c>
+      <c r="U52" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="V52" s="4">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="W52" s="4">
+        <v>21.22727272727273</v>
+      </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="7" t="s">
@@ -14624,6 +17252,18 @@
       <c r="S53" s="4">
         <v>33.27777777777778</v>
       </c>
+      <c r="T53" s="4">
+        <v>31.15789473684211</v>
+      </c>
+      <c r="U53" s="4">
+        <v>33.45</v>
+      </c>
+      <c r="V53" s="4">
+        <v>34.52380952380953</v>
+      </c>
+      <c r="W53" s="4">
+        <v>34.40909090909091</v>
+      </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="8" t="s">
@@ -14683,6 +17323,18 @@
       <c r="S54" s="4">
         <v>43.88888888888889</v>
       </c>
+      <c r="T54" s="4">
+        <v>44.89473684210526</v>
+      </c>
+      <c r="U54" s="4">
+        <v>44.05</v>
+      </c>
+      <c r="V54" s="4">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="W54" s="4">
+        <v>45.77272727272727</v>
+      </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="9" t="s">
@@ -14742,6 +17394,18 @@
       <c r="S55" s="4">
         <v>12.61111111111111</v>
       </c>
+      <c r="T55" s="4">
+        <v>11.57894736842105</v>
+      </c>
+      <c r="U55" s="4">
+        <v>10.05</v>
+      </c>
+      <c r="V55" s="4">
+        <v>10.14285714285714</v>
+      </c>
+      <c r="W55" s="4">
+        <v>9.772727272727273</v>
+      </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="10" t="s">
@@ -14801,6 +17465,18 @@
       <c r="S56" s="4">
         <v>38</v>
       </c>
+      <c r="T56" s="4">
+        <v>39</v>
+      </c>
+      <c r="U56" s="4">
+        <v>40.3</v>
+      </c>
+      <c r="V56" s="4">
+        <v>40</v>
+      </c>
+      <c r="W56" s="4">
+        <v>40.86363636363637</v>
+      </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="11" t="s">
@@ -14860,6 +17536,18 @@
       <c r="S57" s="4">
         <v>48.38888888888889</v>
       </c>
+      <c r="T57" s="4">
+        <v>49.47368421052632</v>
+      </c>
+      <c r="U57" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="V57" s="4">
+        <v>48.04761904761905</v>
+      </c>
+      <c r="W57" s="4">
+        <v>48.18181818181818</v>
+      </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="12" t="s">
@@ -14919,6 +17607,18 @@
       <c r="S58" s="4">
         <v>84.77777777777777</v>
       </c>
+      <c r="T58" s="4">
+        <v>82.68421052631579</v>
+      </c>
+      <c r="U58" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="V58" s="4">
+        <v>83.80952380952381</v>
+      </c>
+      <c r="W58" s="4">
+        <v>83.95454545454545</v>
+      </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="13" t="s">
@@ -14978,6 +17678,18 @@
       <c r="S59" s="4">
         <v>6.111111111111111</v>
       </c>
+      <c r="T59" s="4">
+        <v>6.842105263157895</v>
+      </c>
+      <c r="U59" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="V59" s="4">
+        <v>6.619047619047619</v>
+      </c>
+      <c r="W59" s="4">
+        <v>6.863636363636363</v>
+      </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="1" t="s">
@@ -15108,6 +17820,18 @@
       <c r="S62" s="4">
         <v>6.155555555555556</v>
       </c>
+      <c r="T62" s="4">
+        <v>6.18421052631579</v>
+      </c>
+      <c r="U62" s="4">
+        <v>6.205</v>
+      </c>
+      <c r="V62" s="4">
+        <v>6.223809523809525</v>
+      </c>
+      <c r="W62" s="4">
+        <v>6.240909090909091</v>
+      </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="5" t="s">
@@ -15167,6 +17891,18 @@
       <c r="S63" s="4">
         <v>6.272222222222222</v>
       </c>
+      <c r="T63" s="4">
+        <v>6.347368421052632</v>
+      </c>
+      <c r="U63" s="4">
+        <v>6.44</v>
+      </c>
+      <c r="V63" s="4">
+        <v>6.547619047619047</v>
+      </c>
+      <c r="W63" s="4">
+        <v>6.645454545454545</v>
+      </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="6" t="s">
@@ -15226,6 +17962,18 @@
       <c r="S64" s="4">
         <v>10.69444444444444</v>
       </c>
+      <c r="T64" s="4">
+        <v>10.82631578947368</v>
+      </c>
+      <c r="U64" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="V64" s="4">
+        <v>11.12380952380952</v>
+      </c>
+      <c r="W64" s="4">
+        <v>11.26363636363636</v>
+      </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="7" t="s">
@@ -15285,6 +18033,18 @@
       <c r="S65" s="4">
         <v>9.055555555555555</v>
       </c>
+      <c r="T65" s="4">
+        <v>9.205263157894738</v>
+      </c>
+      <c r="U65" s="4">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="V65" s="4">
+        <v>9.580952380952382</v>
+      </c>
+      <c r="W65" s="4">
+        <v>9.754545454545456</v>
+      </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="8" t="s">
@@ -15344,6 +18104,18 @@
       <c r="S66" s="4">
         <v>22.92222222222222</v>
       </c>
+      <c r="T66" s="4">
+        <v>23.01052631578948</v>
+      </c>
+      <c r="U66" s="4">
+        <v>23.095</v>
+      </c>
+      <c r="V66" s="4">
+        <v>23.18571428571429</v>
+      </c>
+      <c r="W66" s="4">
+        <v>23.26818181818182</v>
+      </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="9" t="s">
@@ -15403,6 +18175,18 @@
       <c r="S67" s="4">
         <v>5.58888888888889</v>
       </c>
+      <c r="T67" s="4">
+        <v>5.678947368421054</v>
+      </c>
+      <c r="U67" s="4">
+        <v>5.755000000000001</v>
+      </c>
+      <c r="V67" s="4">
+        <v>5.823809523809525</v>
+      </c>
+      <c r="W67" s="4">
+        <v>5.886363636363638</v>
+      </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="10" t="s">
@@ -15462,6 +18246,18 @@
       <c r="S68" s="4">
         <v>11.33333333333334</v>
       </c>
+      <c r="T68" s="4">
+        <v>11.61578947368421</v>
+      </c>
+      <c r="U68" s="4">
+        <v>11.885</v>
+      </c>
+      <c r="V68" s="4">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="W68" s="4">
+        <v>12.35909090909091</v>
+      </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="11" t="s">
@@ -15521,6 +18317,18 @@
       <c r="S69" s="4">
         <v>25.38333333333333</v>
       </c>
+      <c r="T69" s="4">
+        <v>25.41578947368421</v>
+      </c>
+      <c r="U69" s="4">
+        <v>25.445</v>
+      </c>
+      <c r="V69" s="4">
+        <v>25.47142857142856</v>
+      </c>
+      <c r="W69" s="4">
+        <v>25.49545454545454</v>
+      </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="12" t="s">
@@ -15580,6 +18388,18 @@
       <c r="S70" s="4">
         <v>28.17222222222222</v>
       </c>
+      <c r="T70" s="4">
+        <v>28.23684210526316</v>
+      </c>
+      <c r="U70" s="4">
+        <v>28.305</v>
+      </c>
+      <c r="V70" s="4">
+        <v>28.37142857142857</v>
+      </c>
+      <c r="W70" s="4">
+        <v>28.43181818181819</v>
+      </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="13" t="s">
@@ -15639,6 +18459,18 @@
       <c r="S71" s="4">
         <v>5.588888888888889</v>
       </c>
+      <c r="T71" s="4">
+        <v>5.705263157894737</v>
+      </c>
+      <c r="U71" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="V71" s="4">
+        <v>5.904761904761904</v>
+      </c>
+      <c r="W71" s="4">
+        <v>5.99090909090909</v>
+      </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
@@ -15769,6 +18601,18 @@
       <c r="S74" s="4">
         <v>2.238805970149254</v>
       </c>
+      <c r="T74" s="4">
+        <v>2.08955223880597</v>
+      </c>
+      <c r="U74" s="4">
+        <v>-4.626865671641791</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="W74" s="4">
+        <v>1.96969696969697</v>
+      </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="5" t="s">
@@ -15828,6 +18672,18 @@
       <c r="S75" s="4">
         <v>5.074626865671641</v>
       </c>
+      <c r="T75" s="4">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="U75" s="4">
+        <v>4.025974025974026</v>
+      </c>
+      <c r="V75" s="4">
+        <v>3.170731707317073</v>
+      </c>
+      <c r="W75" s="4">
+        <v>3.103448275862069</v>
+      </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="6" t="s">
@@ -15887,6 +18743,18 @@
       <c r="S76" s="4">
         <v>2.213114754098361</v>
       </c>
+      <c r="T76" s="4">
+        <v>1.653543307086614</v>
+      </c>
+      <c r="U76" s="4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="V76" s="4">
+        <v>3.357664233576643</v>
+      </c>
+      <c r="W76" s="4">
+        <v>0.7746478873239437</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="7" t="s">
@@ -15946,6 +18814,18 @@
       <c r="S77" s="4">
         <v>0</v>
       </c>
+      <c r="T77" s="4">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="U77" s="4">
+        <v>6.470588235294118</v>
+      </c>
+      <c r="V77" s="4">
+        <v>4.341085271317829</v>
+      </c>
+      <c r="W77" s="4">
+        <v>2.388059701492537</v>
+      </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="8" t="s">
@@ -16005,6 +18885,18 @@
       <c r="S78" s="4">
         <v>1.446280991735537</v>
       </c>
+      <c r="T78" s="4">
+        <v>2.592592592592593</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1.138211382113821</v>
+      </c>
+      <c r="V78" s="4">
+        <v>3.157894736842105</v>
+      </c>
+      <c r="W78" s="4">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="9" t="s">
@@ -16064,6 +18956,18 @@
       <c r="S79" s="4">
         <v>4.347826086956522</v>
       </c>
+      <c r="T79" s="4">
+        <v>-0.9459459459459459</v>
+      </c>
+      <c r="U79" s="4">
+        <v>-2.602739726027397</v>
+      </c>
+      <c r="V79" s="4">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W79" s="4">
+        <v>0.2777777777777778</v>
+      </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="10" t="s">
@@ -16123,6 +19027,18 @@
       <c r="S80" s="4">
         <v>2.208588957055214</v>
       </c>
+      <c r="T80" s="4">
+        <v>3.475609756097561</v>
+      </c>
+      <c r="U80" s="4">
+        <v>3.892215568862276</v>
+      </c>
+      <c r="V80" s="4">
+        <v>2</v>
+      </c>
+      <c r="W80" s="4">
+        <v>3.450292397660819</v>
+      </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="11" t="s">
@@ -16182,6 +19098,18 @@
       <c r="S81" s="4">
         <v>1.196911196911197</v>
       </c>
+      <c r="T81" s="4">
+        <v>2.664092664092664</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="V81" s="4">
+        <v>1.730769230769231</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1.961538461538461</v>
+      </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="12" t="s">
@@ -16241,6 +19169,18 @@
       <c r="S82" s="4">
         <v>3.242320819112628</v>
       </c>
+      <c r="T82" s="4">
+        <v>1.530612244897959</v>
+      </c>
+      <c r="U82" s="4">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="V82" s="4">
+        <v>2.837837837837838</v>
+      </c>
+      <c r="W82" s="4">
+        <v>2.92929292929293</v>
+      </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="13" t="s">
@@ -16300,6 +19240,18 @@
       <c r="S83" s="4">
         <v>4.264705882352941</v>
       </c>
+      <c r="T83" s="4">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="W83" s="4">
+        <v>1.538461538461539</v>
+      </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="1" t="s">
@@ -16430,6 +19382,18 @@
       <c r="S86" s="4">
         <v>2.049808429118773</v>
       </c>
+      <c r="T86" s="4">
+        <v>2.052205220522052</v>
+      </c>
+      <c r="U86" s="4">
+        <v>1.6723259762309</v>
+      </c>
+      <c r="V86" s="4">
+        <v>1.680064308681672</v>
+      </c>
+      <c r="W86" s="4">
+        <v>1.694656488549618</v>
+      </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="5" t="s">
@@ -16489,6 +19453,18 @@
       <c r="S87" s="4">
         <v>1.625</v>
       </c>
+      <c r="T87" s="4">
+        <v>1.879194630872483</v>
+      </c>
+      <c r="U87" s="4">
+        <v>2.009456264775414</v>
+      </c>
+      <c r="V87" s="4">
+        <v>2.079940784603997</v>
+      </c>
+      <c r="W87" s="4">
+        <v>2.141863699582754</v>
+      </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="6" t="s">
@@ -16548,6 +19524,18 @@
       <c r="S88" s="4">
         <v>1.817702845100106</v>
       </c>
+      <c r="T88" s="4">
+        <v>1.807407407407408</v>
+      </c>
+      <c r="U88" s="4">
+        <v>1.900788131664349</v>
+      </c>
+      <c r="V88" s="4">
+        <v>1.987794245858763</v>
+      </c>
+      <c r="W88" s="4">
+        <v>1.917077175697866</v>
+      </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="7" t="s">
@@ -16607,6 +19595,18 @@
       <c r="S89" s="4">
         <v>4.108367626886145</v>
       </c>
+      <c r="T89" s="4">
+        <v>3.751584283903675</v>
+      </c>
+      <c r="U89" s="4">
+        <v>3.942251031231585</v>
+      </c>
+      <c r="V89" s="4">
+        <v>3.970427163198247</v>
+      </c>
+      <c r="W89" s="4">
+        <v>3.862244897959183</v>
+      </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="8" t="s">
@@ -16666,6 +19666,18 @@
       <c r="S90" s="4">
         <v>1.92495126705653</v>
       </c>
+      <c r="T90" s="4">
+        <v>1.962272831838049</v>
+      </c>
+      <c r="U90" s="4">
+        <v>1.918136294360984</v>
+      </c>
+      <c r="V90" s="4">
+        <v>1.981404958677686</v>
+      </c>
+      <c r="W90" s="4">
+        <v>1.978388998035363</v>
+      </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="9" t="s">
@@ -16725,6 +19737,18 @@
       <c r="S91" s="4">
         <v>2.451403887688984</v>
       </c>
+      <c r="T91" s="4">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="U91" s="4">
+        <v>1.873252562907735</v>
+      </c>
+      <c r="V91" s="4">
+        <v>1.860262008733624</v>
+      </c>
+      <c r="W91" s="4">
+        <v>1.766639276910435</v>
+      </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="10" t="s">
@@ -16784,6 +19808,18 @@
       <c r="S92" s="4">
         <v>3.479145473041709</v>
       </c>
+      <c r="T92" s="4">
+        <v>3.478873239436619</v>
+      </c>
+      <c r="U92" s="4">
+        <v>3.508924684370919</v>
+      </c>
+      <c r="V92" s="4">
+        <v>3.40494527766518</v>
+      </c>
+      <c r="W92" s="4">
+        <v>3.407884761182714</v>
+      </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="11" t="s">
@@ -16843,6 +19879,18 @@
       <c r="S93" s="4">
         <v>1.9096689322517</v>
       </c>
+      <c r="T93" s="4">
+        <v>1.950207468879668</v>
+      </c>
+      <c r="U93" s="4">
+        <v>1.897637795275591</v>
+      </c>
+      <c r="V93" s="4">
+        <v>1.889513108614233</v>
+      </c>
+      <c r="W93" s="4">
+        <v>1.892857142857143</v>
+      </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
@@ -16902,6 +19950,18 @@
       <c r="S94" s="4">
         <v>3.021782178217822</v>
       </c>
+      <c r="T94" s="4">
+        <v>2.939745508982036</v>
+      </c>
+      <c r="U94" s="4">
+        <v>2.972685349414686</v>
+      </c>
+      <c r="V94" s="4">
+        <v>2.965958881024604</v>
+      </c>
+      <c r="W94" s="4">
+        <v>2.964211202054245</v>
+      </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="13" t="s">
@@ -16960,6 +20020,18 @@
       </c>
       <c r="S95" s="4">
         <v>1.117886178861789</v>
+      </c>
+      <c r="T95" s="4">
+        <v>1.229895931882687</v>
+      </c>
+      <c r="U95" s="4">
+        <v>1.162995594713656</v>
+      </c>
+      <c r="V95" s="4">
+        <v>1.145919208573784</v>
+      </c>
+      <c r="W95" s="4">
+        <v>1.169635941130906</v>
       </c>
     </row>
   </sheetData>
